--- a/raw_data/20200818_saline/20200818_Sensor2_Test_69.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_69.xlsx
@@ -1,598 +1,1014 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FCA038B-BF8D-415A-8F68-1491CEC67510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>61573.579253</v>
+        <v>61573.579253000004</v>
       </c>
       <c r="B2" s="1">
-        <v>17.103772</v>
+        <v>17.103771999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>1248.420000</v>
+        <v>1248.42</v>
       </c>
       <c r="D2" s="1">
-        <v>-303.600000</v>
+        <v>-303.60000000000002</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>61583.617784</v>
+        <v>61583.617784000002</v>
       </c>
       <c r="G2" s="1">
-        <v>17.106560</v>
+        <v>17.106560000000002</v>
       </c>
       <c r="H2" s="1">
-        <v>1273.070000</v>
+        <v>1273.07</v>
       </c>
       <c r="I2" s="1">
-        <v>-263.130000</v>
+        <v>-263.13</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>61593.702479</v>
       </c>
       <c r="L2" s="1">
-        <v>17.109362</v>
+        <v>17.109362000000001</v>
       </c>
       <c r="M2" s="1">
-        <v>1307.730000</v>
+        <v>1307.73</v>
       </c>
       <c r="N2" s="1">
-        <v>-201.558000</v>
+        <v>-201.55799999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>61603.909611</v>
+        <v>61603.909611000003</v>
       </c>
       <c r="Q2" s="1">
-        <v>17.112197</v>
+        <v>17.112196999999998</v>
       </c>
       <c r="R2" s="1">
-        <v>1319.200000</v>
+        <v>1319.2</v>
       </c>
       <c r="S2" s="1">
-        <v>-184.000000</v>
+        <v>-184</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>61614.487335</v>
+        <v>61614.487334999998</v>
       </c>
       <c r="V2" s="1">
-        <v>17.115135</v>
+        <v>17.115134999999999</v>
       </c>
       <c r="W2" s="1">
-        <v>1332.430000</v>
+        <v>1332.43</v>
       </c>
       <c r="X2" s="1">
-        <v>-170.913000</v>
+        <v>-170.91300000000001</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>61624.956849</v>
+        <v>61624.956849000002</v>
       </c>
       <c r="AA2" s="1">
-        <v>17.118044</v>
+        <v>17.118044000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>1350.200000</v>
+        <v>1350.2</v>
       </c>
       <c r="AC2" s="1">
-        <v>-169.238000</v>
+        <v>-169.238</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>61635.508279</v>
+        <v>61635.508279000001</v>
       </c>
       <c r="AF2" s="1">
-        <v>17.120975</v>
+        <v>17.120975000000001</v>
       </c>
       <c r="AG2" s="1">
-        <v>1363.380000</v>
+        <v>1363.38</v>
       </c>
       <c r="AH2" s="1">
-        <v>-179.147000</v>
+        <v>-179.14699999999999</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>61645.945060</v>
+        <v>61645.945059999998</v>
       </c>
       <c r="AK2" s="1">
-        <v>17.123874</v>
+        <v>17.123874000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>1384.410000</v>
+        <v>1384.41</v>
       </c>
       <c r="AM2" s="1">
-        <v>-209.273000</v>
+        <v>-209.273</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
         <v>61656.544102</v>
@@ -601,136 +1017,136 @@
         <v>17.126818</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1406.710000</v>
+        <v>1406.71</v>
       </c>
       <c r="AR2" s="1">
-        <v>-253.013000</v>
+        <v>-253.01300000000001</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>61667.549832</v>
+        <v>61667.549831999997</v>
       </c>
       <c r="AU2" s="1">
-        <v>17.129875</v>
+        <v>17.129874999999998</v>
       </c>
       <c r="AV2" s="1">
-        <v>1431.870000</v>
+        <v>1431.87</v>
       </c>
       <c r="AW2" s="1">
-        <v>-312.734000</v>
+        <v>-312.73399999999998</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
         <v>61678.806008</v>
       </c>
       <c r="AZ2" s="1">
-        <v>17.133002</v>
+        <v>17.133002000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>1451.510000</v>
+        <v>1451.51</v>
       </c>
       <c r="BB2" s="1">
-        <v>-364.402000</v>
+        <v>-364.40199999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>61690.227386</v>
+        <v>61690.227385999999</v>
       </c>
       <c r="BE2" s="1">
         <v>17.136174</v>
       </c>
       <c r="BF2" s="1">
-        <v>1538.670000</v>
+        <v>1538.67</v>
       </c>
       <c r="BG2" s="1">
-        <v>-610.484000</v>
+        <v>-610.48400000000004</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>61701.827819</v>
+        <v>61701.827818999998</v>
       </c>
       <c r="BJ2" s="1">
-        <v>17.139397</v>
+        <v>17.139396999999999</v>
       </c>
       <c r="BK2" s="1">
-        <v>1696.100000</v>
+        <v>1696.1</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1049.780000</v>
+        <v>-1049.78</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>61713.351868</v>
+        <v>61713.351867999998</v>
       </c>
       <c r="BO2" s="1">
         <v>17.142598</v>
       </c>
       <c r="BP2" s="1">
-        <v>1995.210000</v>
+        <v>1995.21</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1806.630000</v>
+        <v>-1806.63</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>61724.857100</v>
+        <v>61724.857100000001</v>
       </c>
       <c r="BT2" s="1">
-        <v>17.145794</v>
+        <v>17.145793999999999</v>
       </c>
       <c r="BU2" s="1">
-        <v>2385.650000</v>
+        <v>2385.65</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2673.340000</v>
+        <v>-2673.34</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>61735.891567</v>
+        <v>61735.891566999999</v>
       </c>
       <c r="BY2" s="1">
-        <v>17.148859</v>
+        <v>17.148859000000002</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2872.420000</v>
+        <v>2872.42</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3618.460000</v>
+        <v>-3618.46</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>61747.366549</v>
+        <v>61747.366548999998</v>
       </c>
       <c r="CD2" s="1">
-        <v>17.152046</v>
+        <v>17.152045999999999</v>
       </c>
       <c r="CE2" s="1">
-        <v>4296.880000</v>
+        <v>4296.88</v>
       </c>
       <c r="CF2" s="1">
-        <v>-5868.460000</v>
+        <v>-5868.46</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
         <v>61573.929956</v>
       </c>
@@ -738,208 +1154,208 @@
         <v>17.103869</v>
       </c>
       <c r="C3" s="1">
-        <v>1248.240000</v>
+        <v>1248.24</v>
       </c>
       <c r="D3" s="1">
-        <v>-303.918000</v>
+        <v>-303.91800000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>61583.961042</v>
+        <v>61583.961042000003</v>
       </c>
       <c r="G3" s="1">
-        <v>17.106656</v>
+        <v>17.106656000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>1272.600000</v>
+        <v>1272.5999999999999</v>
       </c>
       <c r="I3" s="1">
-        <v>-261.972000</v>
+        <v>-261.97199999999998</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>61594.123546</v>
+        <v>61594.123546000003</v>
       </c>
       <c r="L3" s="1">
         <v>17.109479</v>
       </c>
       <c r="M3" s="1">
-        <v>1307.220000</v>
+        <v>1307.22</v>
       </c>
       <c r="N3" s="1">
-        <v>-201.486000</v>
+        <v>-201.48599999999999</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>61604.354028</v>
+        <v>61604.354028000002</v>
       </c>
       <c r="Q3" s="1">
-        <v>17.112321</v>
+        <v>17.112321000000001</v>
       </c>
       <c r="R3" s="1">
-        <v>1319.050000</v>
+        <v>1319.05</v>
       </c>
       <c r="S3" s="1">
-        <v>-184.053000</v>
+        <v>-184.053</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>61614.877151</v>
+        <v>61614.877151000001</v>
       </c>
       <c r="V3" s="1">
-        <v>17.115244</v>
+        <v>17.115244000000001</v>
       </c>
       <c r="W3" s="1">
-        <v>1332.640000</v>
+        <v>1332.64</v>
       </c>
       <c r="X3" s="1">
-        <v>-171.067000</v>
+        <v>-171.06700000000001</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
         <v>61625.324879</v>
       </c>
       <c r="AA3" s="1">
-        <v>17.118146</v>
+        <v>17.118145999999999</v>
       </c>
       <c r="AB3" s="1">
-        <v>1350.200000</v>
+        <v>1350.2</v>
       </c>
       <c r="AC3" s="1">
-        <v>-169.294000</v>
+        <v>-169.29400000000001</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>61635.876308</v>
+        <v>61635.876307999999</v>
       </c>
       <c r="AF3" s="1">
         <v>17.121077</v>
       </c>
       <c r="AG3" s="1">
-        <v>1363.280000</v>
+        <v>1363.28</v>
       </c>
       <c r="AH3" s="1">
-        <v>-179.117000</v>
+        <v>-179.11699999999999</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>61646.329473</v>
+        <v>61646.329472999998</v>
       </c>
       <c r="AK3" s="1">
-        <v>17.123980</v>
+        <v>17.12398</v>
       </c>
       <c r="AL3" s="1">
-        <v>1384.430000</v>
+        <v>1384.43</v>
       </c>
       <c r="AM3" s="1">
-        <v>-209.265000</v>
+        <v>-209.26499999999999</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>61657.300965</v>
+        <v>61657.300965000002</v>
       </c>
       <c r="AP3" s="1">
-        <v>17.127028</v>
+        <v>17.127027999999999</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1406.680000</v>
+        <v>1406.68</v>
       </c>
       <c r="AR3" s="1">
-        <v>-253.051000</v>
+        <v>-253.05099999999999</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>61668.289334</v>
+        <v>61668.289334000001</v>
       </c>
       <c r="AU3" s="1">
-        <v>17.130080</v>
+        <v>17.13008</v>
       </c>
       <c r="AV3" s="1">
-        <v>1431.840000</v>
+        <v>1431.84</v>
       </c>
       <c r="AW3" s="1">
-        <v>-312.711000</v>
+        <v>-312.71100000000001</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>61679.203832</v>
+        <v>61679.203831999999</v>
       </c>
       <c r="AZ3" s="1">
-        <v>17.133112</v>
+        <v>17.133112000000001</v>
       </c>
       <c r="BA3" s="1">
-        <v>1451.540000</v>
+        <v>1451.54</v>
       </c>
       <c r="BB3" s="1">
-        <v>-364.399000</v>
+        <v>-364.399</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>61690.621705</v>
+        <v>61690.621704999998</v>
       </c>
       <c r="BE3" s="1">
         <v>17.136284</v>
       </c>
       <c r="BF3" s="1">
-        <v>1538.590000</v>
+        <v>1538.59</v>
       </c>
       <c r="BG3" s="1">
-        <v>-610.487000</v>
+        <v>-610.48699999999997</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>61702.226116</v>
+        <v>61702.226115999998</v>
       </c>
       <c r="BJ3" s="1">
-        <v>17.139507</v>
+        <v>17.139506999999998</v>
       </c>
       <c r="BK3" s="1">
-        <v>1695.930000</v>
+        <v>1695.93</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1049.880000</v>
+        <v>-1049.8800000000001</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>61714.108763</v>
+        <v>61714.108762999997</v>
       </c>
       <c r="BO3" s="1">
-        <v>17.142808</v>
+        <v>17.142807999999999</v>
       </c>
       <c r="BP3" s="1">
-        <v>1995.110000</v>
+        <v>1995.11</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1806.830000</v>
+        <v>-1806.83</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
         <v>61725.037116</v>
@@ -948,1056 +1364,1056 @@
         <v>17.145844</v>
       </c>
       <c r="BU3" s="1">
-        <v>2385.410000</v>
+        <v>2385.41</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2672.970000</v>
+        <v>-2672.97</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>61736.051278</v>
+        <v>61736.051277999999</v>
       </c>
       <c r="BY3" s="1">
-        <v>17.148903</v>
+        <v>17.148903000000001</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2872.760000</v>
+        <v>2872.76</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3618.690000</v>
+        <v>-3618.69</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>61747.961904</v>
+        <v>61747.961904000003</v>
       </c>
       <c r="CD3" s="1">
-        <v>17.152212</v>
+        <v>17.152211999999999</v>
       </c>
       <c r="CE3" s="1">
-        <v>4276.060000</v>
+        <v>4276.0600000000004</v>
       </c>
       <c r="CF3" s="1">
-        <v>-5868.360000</v>
+        <v>-5868.36</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>61574.375330</v>
+        <v>61574.375330000003</v>
       </c>
       <c r="B4" s="1">
-        <v>17.103993</v>
+        <v>17.103992999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>1248.470000</v>
+        <v>1248.47</v>
       </c>
       <c r="D4" s="1">
-        <v>-303.870000</v>
+        <v>-303.87</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>61584.389061</v>
+        <v>61584.389061000002</v>
       </c>
       <c r="G4" s="1">
-        <v>17.106775</v>
+        <v>17.106774999999999</v>
       </c>
       <c r="H4" s="1">
-        <v>1272.630000</v>
+        <v>1272.6300000000001</v>
       </c>
       <c r="I4" s="1">
-        <v>-262.116000</v>
+        <v>-262.11599999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>61594.468760</v>
+        <v>61594.468760000003</v>
       </c>
       <c r="L4" s="1">
         <v>17.109575</v>
       </c>
       <c r="M4" s="1">
-        <v>1307.240000</v>
+        <v>1307.24</v>
       </c>
       <c r="N4" s="1">
-        <v>-201.790000</v>
+        <v>-201.79</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>61604.676426</v>
+        <v>61604.676425999998</v>
       </c>
       <c r="Q4" s="1">
-        <v>17.112410</v>
+        <v>17.112410000000001</v>
       </c>
       <c r="R4" s="1">
-        <v>1319.100000</v>
+        <v>1319.1</v>
       </c>
       <c r="S4" s="1">
-        <v>-184.009000</v>
+        <v>-184.00899999999999</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>61615.220415</v>
+        <v>61615.220415000003</v>
       </c>
       <c r="V4" s="1">
-        <v>17.115339</v>
+        <v>17.115338999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>1332.250000</v>
+        <v>1332.25</v>
       </c>
       <c r="X4" s="1">
-        <v>-170.906000</v>
+        <v>-170.90600000000001</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>61625.673089</v>
+        <v>61625.673089000004</v>
       </c>
       <c r="AA4" s="1">
         <v>17.118243</v>
       </c>
       <c r="AB4" s="1">
-        <v>1350.140000</v>
+        <v>1350.14</v>
       </c>
       <c r="AC4" s="1">
-        <v>-169.200000</v>
+        <v>-169.2</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>61636.221993</v>
+        <v>61636.221992999999</v>
       </c>
       <c r="AF4" s="1">
-        <v>17.121173</v>
+        <v>17.121172999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>1363.310000</v>
+        <v>1363.31</v>
       </c>
       <c r="AH4" s="1">
-        <v>-179.216000</v>
+        <v>-179.21600000000001</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>61647.028819</v>
+        <v>61647.028818999999</v>
       </c>
       <c r="AK4" s="1">
-        <v>17.124175</v>
+        <v>17.124175000000001</v>
       </c>
       <c r="AL4" s="1">
-        <v>1384.420000</v>
+        <v>1384.42</v>
       </c>
       <c r="AM4" s="1">
-        <v>-209.255000</v>
+        <v>-209.255</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>61657.663080</v>
+        <v>61657.663079999998</v>
       </c>
       <c r="AP4" s="1">
         <v>17.127129</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1406.670000</v>
+        <v>1406.67</v>
       </c>
       <c r="AR4" s="1">
-        <v>-253.019000</v>
+        <v>-253.01900000000001</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>61668.652902</v>
+        <v>61668.652902000002</v>
       </c>
       <c r="AU4" s="1">
         <v>17.130181</v>
       </c>
       <c r="AV4" s="1">
-        <v>1431.840000</v>
+        <v>1431.84</v>
       </c>
       <c r="AW4" s="1">
-        <v>-312.733000</v>
+        <v>-312.733</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>61679.563399</v>
+        <v>61679.563398999999</v>
       </c>
       <c r="AZ4" s="1">
         <v>17.133212</v>
       </c>
       <c r="BA4" s="1">
-        <v>1451.600000</v>
+        <v>1451.6</v>
       </c>
       <c r="BB4" s="1">
-        <v>-364.384000</v>
+        <v>-364.38400000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>61691.289321</v>
+        <v>61691.289320999997</v>
       </c>
       <c r="BE4" s="1">
-        <v>17.136469</v>
+        <v>17.136469000000002</v>
       </c>
       <c r="BF4" s="1">
-        <v>1538.650000</v>
+        <v>1538.65</v>
       </c>
       <c r="BG4" s="1">
-        <v>-610.474000</v>
+        <v>-610.47400000000005</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>61702.921496</v>
+        <v>61702.921496000003</v>
       </c>
       <c r="BJ4" s="1">
-        <v>17.139700</v>
+        <v>17.139700000000001</v>
       </c>
       <c r="BK4" s="1">
-        <v>1695.940000</v>
+        <v>1695.94</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1049.860000</v>
+        <v>-1049.8599999999999</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
         <v>61714.220362</v>
       </c>
       <c r="BO4" s="1">
-        <v>17.142839</v>
+        <v>17.142838999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1995.030000</v>
+        <v>1995.03</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1806.800000</v>
+        <v>-1806.8</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>61725.703244</v>
+        <v>61725.703243999997</v>
       </c>
       <c r="BT4" s="1">
-        <v>17.146029</v>
+        <v>17.146028999999999</v>
       </c>
       <c r="BU4" s="1">
-        <v>2385.660000</v>
+        <v>2385.66</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2673.220000</v>
+        <v>-2673.22</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>61736.461964</v>
+        <v>61736.461964000002</v>
       </c>
       <c r="BY4" s="1">
-        <v>17.149017</v>
+        <v>17.149017000000001</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2872.880000</v>
+        <v>2872.88</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3618.360000</v>
+        <v>-3618.36</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>61748.499405</v>
+        <v>61748.499405000002</v>
       </c>
       <c r="CD4" s="1">
-        <v>17.152361</v>
+        <v>17.152360999999999</v>
       </c>
       <c r="CE4" s="1">
-        <v>4289.920000</v>
+        <v>4289.92</v>
       </c>
       <c r="CF4" s="1">
-        <v>-5882.590000</v>
+        <v>-5882.59</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>61574.624820</v>
+        <v>61574.624819999997</v>
       </c>
       <c r="B5" s="1">
-        <v>17.104062</v>
+        <v>17.104061999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>1248.590000</v>
+        <v>1248.5899999999999</v>
       </c>
       <c r="D5" s="1">
-        <v>-303.813000</v>
+        <v>-303.81299999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>61584.653925</v>
+        <v>61584.653924999999</v>
       </c>
       <c r="G5" s="1">
-        <v>17.106848</v>
+        <v>17.106847999999999</v>
       </c>
       <c r="H5" s="1">
-        <v>1273.600000</v>
+        <v>1273.5999999999999</v>
       </c>
       <c r="I5" s="1">
-        <v>-261.632000</v>
+        <v>-261.63200000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>61594.812985</v>
+        <v>61594.812984999997</v>
       </c>
       <c r="L5" s="1">
-        <v>17.109670</v>
+        <v>17.109670000000001</v>
       </c>
       <c r="M5" s="1">
-        <v>1307.320000</v>
+        <v>1307.32</v>
       </c>
       <c r="N5" s="1">
-        <v>-201.748000</v>
+        <v>-201.74799999999999</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>61605.024122</v>
+        <v>61605.024122000003</v>
       </c>
       <c r="Q5" s="1">
-        <v>17.112507</v>
+        <v>17.112507000000001</v>
       </c>
       <c r="R5" s="1">
-        <v>1319.140000</v>
+        <v>1319.14</v>
       </c>
       <c r="S5" s="1">
-        <v>-183.897000</v>
+        <v>-183.89699999999999</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>61615.565632</v>
+        <v>61615.565631999998</v>
       </c>
       <c r="V5" s="1">
-        <v>17.115435</v>
+        <v>17.115435000000002</v>
       </c>
       <c r="W5" s="1">
-        <v>1332.530000</v>
+        <v>1332.53</v>
       </c>
       <c r="X5" s="1">
-        <v>-171.066000</v>
+        <v>-171.066</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>61626.365982</v>
+        <v>61626.365982000003</v>
       </c>
       <c r="AA5" s="1">
-        <v>17.118435</v>
+        <v>17.118435000000002</v>
       </c>
       <c r="AB5" s="1">
-        <v>1350.030000</v>
+        <v>1350.03</v>
       </c>
       <c r="AC5" s="1">
-        <v>-169.292000</v>
+        <v>-169.292</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>61636.907456</v>
+        <v>61636.907456000001</v>
       </c>
       <c r="AF5" s="1">
-        <v>17.121363</v>
+        <v>17.121362999999999</v>
       </c>
       <c r="AG5" s="1">
-        <v>1363.310000</v>
+        <v>1363.31</v>
       </c>
       <c r="AH5" s="1">
-        <v>-179.220000</v>
+        <v>-179.22</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>61647.374530</v>
+        <v>61647.374530000001</v>
       </c>
       <c r="AK5" s="1">
         <v>17.124271</v>
       </c>
       <c r="AL5" s="1">
-        <v>1384.420000</v>
+        <v>1384.42</v>
       </c>
       <c r="AM5" s="1">
-        <v>-209.256000</v>
+        <v>-209.256</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>61658.022644</v>
+        <v>61658.022643999997</v>
       </c>
       <c r="AP5" s="1">
         <v>17.127229</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1406.700000</v>
+        <v>1406.7</v>
       </c>
       <c r="AR5" s="1">
-        <v>-253.047000</v>
+        <v>-253.047</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>61669.017493</v>
+        <v>61669.017492999999</v>
       </c>
       <c r="AU5" s="1">
-        <v>17.130283</v>
+        <v>17.130282999999999</v>
       </c>
       <c r="AV5" s="1">
-        <v>1431.850000</v>
+        <v>1431.85</v>
       </c>
       <c r="AW5" s="1">
-        <v>-312.711000</v>
+        <v>-312.71100000000001</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>61680.235974</v>
+        <v>61680.235974000003</v>
       </c>
       <c r="AZ5" s="1">
-        <v>17.133399</v>
+        <v>17.133399000000001</v>
       </c>
       <c r="BA5" s="1">
-        <v>1451.570000</v>
+        <v>1451.57</v>
       </c>
       <c r="BB5" s="1">
-        <v>-364.305000</v>
+        <v>-364.30500000000001</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>61691.703976</v>
+        <v>61691.703975999997</v>
       </c>
       <c r="BE5" s="1">
-        <v>17.136584</v>
+        <v>17.136583999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1538.700000</v>
+        <v>1538.7</v>
       </c>
       <c r="BG5" s="1">
-        <v>-610.503000</v>
+        <v>-610.50300000000004</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>61703.356985</v>
+        <v>61703.356984999999</v>
       </c>
       <c r="BJ5" s="1">
-        <v>17.139821</v>
+        <v>17.139821000000001</v>
       </c>
       <c r="BK5" s="1">
-        <v>1695.970000</v>
+        <v>1695.97</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1049.920000</v>
+        <v>-1049.92</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>61714.606249</v>
+        <v>61714.606248999997</v>
       </c>
       <c r="BO5" s="1">
-        <v>17.142946</v>
+        <v>17.142945999999998</v>
       </c>
       <c r="BP5" s="1">
-        <v>1995.030000</v>
+        <v>1995.03</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1806.760000</v>
+        <v>-1806.76</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
         <v>61726.171466</v>
       </c>
       <c r="BT5" s="1">
-        <v>17.146159</v>
+        <v>17.146159000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>2385.440000</v>
+        <v>2385.44</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2672.930000</v>
+        <v>-2672.93</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>61736.896073</v>
+        <v>61736.896073000004</v>
       </c>
       <c r="BY5" s="1">
-        <v>17.149138</v>
+        <v>17.149138000000001</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2872.280000</v>
+        <v>2872.28</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3618.390000</v>
+        <v>-3618.39</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>61749.040011</v>
+        <v>61749.040010999997</v>
       </c>
       <c r="CD5" s="1">
-        <v>17.152511</v>
+        <v>17.152511000000001</v>
       </c>
       <c r="CE5" s="1">
-        <v>4287.480000</v>
+        <v>4287.4799999999996</v>
       </c>
       <c r="CF5" s="1">
-        <v>-5865.140000</v>
+        <v>-5865.14</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
         <v>61574.966107</v>
       </c>
       <c r="B6" s="1">
-        <v>17.104157</v>
+        <v>17.104157000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>1248.670000</v>
+        <v>1248.67</v>
       </c>
       <c r="D6" s="1">
-        <v>-303.776000</v>
+        <v>-303.77600000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>61584.997193</v>
+        <v>61584.997193000003</v>
       </c>
       <c r="G6" s="1">
-        <v>17.106944</v>
+        <v>17.106943999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>1272.350000</v>
+        <v>1272.3499999999999</v>
       </c>
       <c r="I6" s="1">
-        <v>-262.488000</v>
+        <v>-262.488</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>61595.161672</v>
+        <v>61595.161672000002</v>
       </c>
       <c r="L6" s="1">
-        <v>17.109767</v>
+        <v>17.109767000000002</v>
       </c>
       <c r="M6" s="1">
-        <v>1307.480000</v>
+        <v>1307.48</v>
       </c>
       <c r="N6" s="1">
-        <v>-201.338000</v>
+        <v>-201.33799999999999</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>61605.715546</v>
+        <v>61605.715545999999</v>
       </c>
       <c r="Q6" s="1">
-        <v>17.112699</v>
+        <v>17.112698999999999</v>
       </c>
       <c r="R6" s="1">
-        <v>1319.180000</v>
+        <v>1319.18</v>
       </c>
       <c r="S6" s="1">
-        <v>-183.948000</v>
+        <v>-183.94800000000001</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>61616.251100</v>
+        <v>61616.251100000001</v>
       </c>
       <c r="V6" s="1">
-        <v>17.115625</v>
+        <v>17.115625000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>1332.370000</v>
+        <v>1332.37</v>
       </c>
       <c r="X6" s="1">
-        <v>-171.033000</v>
+        <v>-171.03299999999999</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>61626.716655</v>
+        <v>61626.716654999997</v>
       </c>
       <c r="AA6" s="1">
-        <v>17.118532</v>
+        <v>17.118531999999998</v>
       </c>
       <c r="AB6" s="1">
-        <v>1350.100000</v>
+        <v>1350.1</v>
       </c>
       <c r="AC6" s="1">
-        <v>-169.236000</v>
+        <v>-169.23599999999999</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>61637.254656</v>
+        <v>61637.254655999997</v>
       </c>
       <c r="AF6" s="1">
-        <v>17.121460</v>
+        <v>17.121459999999999</v>
       </c>
       <c r="AG6" s="1">
-        <v>1363.320000</v>
+        <v>1363.32</v>
       </c>
       <c r="AH6" s="1">
-        <v>-179.199000</v>
+        <v>-179.19900000000001</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>61647.723228</v>
+        <v>61647.723228000003</v>
       </c>
       <c r="AK6" s="1">
         <v>17.124368</v>
       </c>
       <c r="AL6" s="1">
-        <v>1384.440000</v>
+        <v>1384.44</v>
       </c>
       <c r="AM6" s="1">
-        <v>-209.269000</v>
+        <v>-209.26900000000001</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>61658.692770</v>
+        <v>61658.692770000001</v>
       </c>
       <c r="AP6" s="1">
-        <v>17.127415</v>
+        <v>17.127414999999999</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1406.670000</v>
+        <v>1406.67</v>
       </c>
       <c r="AR6" s="1">
-        <v>-253.017000</v>
+        <v>-253.017</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>61669.689580</v>
+        <v>61669.689579999998</v>
       </c>
       <c r="AU6" s="1">
-        <v>17.130469</v>
+        <v>17.130469000000002</v>
       </c>
       <c r="AV6" s="1">
-        <v>1431.870000</v>
+        <v>1431.87</v>
       </c>
       <c r="AW6" s="1">
-        <v>-312.724000</v>
+        <v>-312.72399999999999</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>61680.638759</v>
+        <v>61680.638759000001</v>
       </c>
       <c r="AZ6" s="1">
-        <v>17.133511</v>
+        <v>17.133510999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>1451.530000</v>
+        <v>1451.53</v>
       </c>
       <c r="BB6" s="1">
-        <v>-364.306000</v>
+        <v>-364.30599999999998</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>61692.093865</v>
+        <v>61692.093865000003</v>
       </c>
       <c r="BE6" s="1">
-        <v>17.136693</v>
+        <v>17.136693000000001</v>
       </c>
       <c r="BF6" s="1">
-        <v>1538.640000</v>
+        <v>1538.64</v>
       </c>
       <c r="BG6" s="1">
-        <v>-610.473000</v>
+        <v>-610.47299999999996</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>61703.733449</v>
+        <v>61703.733448999999</v>
       </c>
       <c r="BJ6" s="1">
-        <v>17.139926</v>
+        <v>17.139925999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1695.990000</v>
+        <v>1695.99</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1049.870000</v>
+        <v>-1049.8699999999999</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>61715.027353</v>
+        <v>61715.027352999998</v>
       </c>
       <c r="BO6" s="1">
-        <v>17.143063</v>
+        <v>17.143063000000001</v>
       </c>
       <c r="BP6" s="1">
-        <v>1994.960000</v>
+        <v>1994.96</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1806.840000</v>
+        <v>-1806.84</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>61726.599514</v>
+        <v>61726.599514000001</v>
       </c>
       <c r="BT6" s="1">
-        <v>17.146278</v>
+        <v>17.146277999999999</v>
       </c>
       <c r="BU6" s="1">
-        <v>2385.540000</v>
+        <v>2385.54</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2673.060000</v>
+        <v>-2673.06</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>61737.330956</v>
+        <v>61737.330955999998</v>
       </c>
       <c r="BY6" s="1">
-        <v>17.149259</v>
+        <v>17.149259000000001</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2872.130000</v>
+        <v>2872.13</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3618.580000</v>
+        <v>-3618.58</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>61749.582667</v>
+        <v>61749.582667000002</v>
       </c>
       <c r="CD6" s="1">
-        <v>17.152662</v>
+        <v>17.152661999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>4274.320000</v>
+        <v>4274.32</v>
       </c>
       <c r="CF6" s="1">
-        <v>-5878.500000</v>
+        <v>-5878.5</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>61575.303878</v>
+        <v>61575.303877999999</v>
       </c>
       <c r="B7" s="1">
-        <v>17.104251</v>
+        <v>17.104251000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>1248.450000</v>
+        <v>1248.45</v>
       </c>
       <c r="D7" s="1">
-        <v>-304.030000</v>
+        <v>-304.02999999999997</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>61585.342372</v>
+        <v>61585.342371999999</v>
       </c>
       <c r="G7" s="1">
-        <v>17.107040</v>
+        <v>17.107040000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>1273.230000</v>
+        <v>1273.23</v>
       </c>
       <c r="I7" s="1">
-        <v>-263.238000</v>
+        <v>-263.238</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>61595.851111</v>
+        <v>61595.851111000004</v>
       </c>
       <c r="L7" s="1">
         <v>17.109959</v>
       </c>
       <c r="M7" s="1">
-        <v>1307.310000</v>
+        <v>1307.31</v>
       </c>
       <c r="N7" s="1">
-        <v>-201.544000</v>
+        <v>-201.54400000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>61606.071673</v>
+        <v>61606.071672999999</v>
       </c>
       <c r="Q7" s="1">
-        <v>17.112798</v>
+        <v>17.112798000000002</v>
       </c>
       <c r="R7" s="1">
-        <v>1319.230000</v>
+        <v>1319.23</v>
       </c>
       <c r="S7" s="1">
-        <v>-183.947000</v>
+        <v>-183.947</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
         <v>61616.592848</v>
       </c>
       <c r="V7" s="1">
-        <v>17.115720</v>
+        <v>17.11572</v>
       </c>
       <c r="W7" s="1">
-        <v>1332.410000</v>
+        <v>1332.41</v>
       </c>
       <c r="X7" s="1">
-        <v>-170.869000</v>
+        <v>-170.869</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>61627.064882</v>
+        <v>61627.064881999999</v>
       </c>
       <c r="AA7" s="1">
-        <v>17.118629</v>
+        <v>17.118628999999999</v>
       </c>
       <c r="AB7" s="1">
-        <v>1350.130000</v>
+        <v>1350.13</v>
       </c>
       <c r="AC7" s="1">
-        <v>-169.196000</v>
+        <v>-169.196</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>61637.598384</v>
+        <v>61637.598383999997</v>
       </c>
       <c r="AF7" s="1">
-        <v>17.121555</v>
+        <v>17.121555000000001</v>
       </c>
       <c r="AG7" s="1">
-        <v>1363.270000</v>
+        <v>1363.27</v>
       </c>
       <c r="AH7" s="1">
-        <v>-179.212000</v>
+        <v>-179.21199999999999</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>61648.387496</v>
+        <v>61648.387496000003</v>
       </c>
       <c r="AK7" s="1">
-        <v>17.124552</v>
+        <v>17.124552000000001</v>
       </c>
       <c r="AL7" s="1">
-        <v>1384.430000</v>
+        <v>1384.43</v>
       </c>
       <c r="AM7" s="1">
-        <v>-209.243000</v>
+        <v>-209.24299999999999</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>61659.101971</v>
+        <v>61659.101970999996</v>
       </c>
       <c r="AP7" s="1">
-        <v>17.127528</v>
+        <v>17.127528000000002</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1406.670000</v>
+        <v>1406.67</v>
       </c>
       <c r="AR7" s="1">
-        <v>-253.022000</v>
+        <v>-253.02199999999999</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>61670.111140</v>
+        <v>61670.111140000001</v>
       </c>
       <c r="AU7" s="1">
-        <v>17.130586</v>
+        <v>17.130586000000001</v>
       </c>
       <c r="AV7" s="1">
-        <v>1431.870000</v>
+        <v>1431.87</v>
       </c>
       <c r="AW7" s="1">
-        <v>-312.706000</v>
+        <v>-312.70600000000002</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>61681.023622</v>
+        <v>61681.023622000001</v>
       </c>
       <c r="AZ7" s="1">
-        <v>17.133618</v>
+        <v>17.133617999999998</v>
       </c>
       <c r="BA7" s="1">
-        <v>1451.620000</v>
+        <v>1451.62</v>
       </c>
       <c r="BB7" s="1">
-        <v>-364.302000</v>
+        <v>-364.30200000000002</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>61692.455911</v>
+        <v>61692.455910999997</v>
       </c>
       <c r="BE7" s="1">
-        <v>17.136793</v>
+        <v>17.136793000000001</v>
       </c>
       <c r="BF7" s="1">
-        <v>1538.960000</v>
+        <v>1538.96</v>
       </c>
       <c r="BG7" s="1">
-        <v>-610.649000</v>
+        <v>-610.649</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>61704.106935</v>
+        <v>61704.106935000003</v>
       </c>
       <c r="BJ7" s="1">
-        <v>17.140030</v>
+        <v>17.140029999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1695.920000</v>
+        <v>1695.92</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1049.860000</v>
+        <v>-1049.8599999999999</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>61715.443498</v>
+        <v>61715.443498000001</v>
       </c>
       <c r="BO7" s="1">
         <v>17.143179</v>
       </c>
       <c r="BP7" s="1">
-        <v>1994.920000</v>
+        <v>1994.92</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1806.800000</v>
+        <v>-1806.8</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>61727.013677</v>
+        <v>61727.013677000003</v>
       </c>
       <c r="BT7" s="1">
         <v>17.146393</v>
       </c>
       <c r="BU7" s="1">
-        <v>2385.540000</v>
+        <v>2385.54</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2672.810000</v>
+        <v>-2672.81</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>61737.764991</v>
+        <v>61737.764990999996</v>
       </c>
       <c r="BY7" s="1">
         <v>17.149379</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2872.370000</v>
+        <v>2872.37</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3618.570000</v>
+        <v>-3618.57</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
         <v>61750.118316</v>
@@ -2006,452 +2422,452 @@
         <v>17.152811</v>
       </c>
       <c r="CE7" s="1">
-        <v>4296.710000</v>
+        <v>4296.71</v>
       </c>
       <c r="CF7" s="1">
-        <v>-5871.560000</v>
+        <v>-5871.56</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>61575.990304</v>
+        <v>61575.990303999999</v>
       </c>
       <c r="B8" s="1">
-        <v>17.104442</v>
+        <v>17.104441999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>1248.650000</v>
+        <v>1248.6500000000001</v>
       </c>
       <c r="D8" s="1">
-        <v>-303.904000</v>
+        <v>-303.904</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>61586.034789</v>
+        <v>61586.034788999998</v>
       </c>
       <c r="G8" s="1">
         <v>17.107232</v>
       </c>
       <c r="H8" s="1">
-        <v>1273.120000</v>
+        <v>1273.1199999999999</v>
       </c>
       <c r="I8" s="1">
-        <v>-262.385000</v>
+        <v>-262.38499999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>61596.200789</v>
+        <v>61596.200789000002</v>
       </c>
       <c r="L8" s="1">
         <v>17.110056</v>
       </c>
       <c r="M8" s="1">
-        <v>1307.320000</v>
+        <v>1307.32</v>
       </c>
       <c r="N8" s="1">
-        <v>-201.750000</v>
+        <v>-201.75</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>61606.422376</v>
+        <v>61606.422376000002</v>
       </c>
       <c r="Q8" s="1">
-        <v>17.112895</v>
+        <v>17.112895000000002</v>
       </c>
       <c r="R8" s="1">
-        <v>1319.220000</v>
+        <v>1319.22</v>
       </c>
       <c r="S8" s="1">
-        <v>-184.030000</v>
+        <v>-184.03</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
         <v>61616.938058</v>
       </c>
       <c r="V8" s="1">
-        <v>17.115816</v>
+        <v>17.115815999999999</v>
       </c>
       <c r="W8" s="1">
-        <v>1332.490000</v>
+        <v>1332.49</v>
       </c>
       <c r="X8" s="1">
-        <v>-170.976000</v>
+        <v>-170.976</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>61627.726540</v>
+        <v>61627.726540000003</v>
       </c>
       <c r="AA8" s="1">
-        <v>17.118813</v>
+        <v>17.118812999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>1350.100000</v>
+        <v>1350.1</v>
       </c>
       <c r="AC8" s="1">
-        <v>-169.361000</v>
+        <v>-169.36099999999999</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>61638.255617</v>
+        <v>61638.255617000003</v>
       </c>
       <c r="AF8" s="1">
-        <v>17.121738</v>
+        <v>17.121738000000001</v>
       </c>
       <c r="AG8" s="1">
-        <v>1363.340000</v>
+        <v>1363.34</v>
       </c>
       <c r="AH8" s="1">
-        <v>-179.259000</v>
+        <v>-179.25899999999999</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>61648.772752</v>
+        <v>61648.772751999997</v>
       </c>
       <c r="AK8" s="1">
-        <v>17.124659</v>
+        <v>17.124659000000001</v>
       </c>
       <c r="AL8" s="1">
-        <v>1384.450000</v>
+        <v>1384.45</v>
       </c>
       <c r="AM8" s="1">
-        <v>-209.279000</v>
+        <v>-209.279</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>61659.489844</v>
+        <v>61659.489844000003</v>
       </c>
       <c r="AP8" s="1">
-        <v>17.127636</v>
+        <v>17.127635999999999</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1406.680000</v>
+        <v>1406.68</v>
       </c>
       <c r="AR8" s="1">
-        <v>-253.027000</v>
+        <v>-253.02699999999999</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>61670.474709</v>
+        <v>61670.474709000002</v>
       </c>
       <c r="AU8" s="1">
-        <v>17.130687</v>
+        <v>17.130687000000002</v>
       </c>
       <c r="AV8" s="1">
-        <v>1431.870000</v>
+        <v>1431.87</v>
       </c>
       <c r="AW8" s="1">
-        <v>-312.722000</v>
+        <v>-312.72199999999998</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>61681.385701</v>
+        <v>61681.385700999999</v>
       </c>
       <c r="AZ8" s="1">
-        <v>17.133718</v>
+        <v>17.133717999999998</v>
       </c>
       <c r="BA8" s="1">
-        <v>1451.610000</v>
+        <v>1451.61</v>
       </c>
       <c r="BB8" s="1">
-        <v>-364.335000</v>
+        <v>-364.33499999999998</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>61693.047670</v>
+        <v>61693.04767</v>
       </c>
       <c r="BE8" s="1">
         <v>17.136958</v>
       </c>
       <c r="BF8" s="1">
-        <v>1538.670000</v>
+        <v>1538.67</v>
       </c>
       <c r="BG8" s="1">
-        <v>-610.491000</v>
+        <v>-610.49099999999999</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>61704.550892</v>
+        <v>61704.550891999999</v>
       </c>
       <c r="BJ8" s="1">
-        <v>17.140153</v>
+        <v>17.140153000000002</v>
       </c>
       <c r="BK8" s="1">
-        <v>1696.000000</v>
+        <v>1696</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1049.920000</v>
+        <v>-1049.92</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>61715.848232</v>
+        <v>61715.848231999997</v>
       </c>
       <c r="BO8" s="1">
-        <v>17.143291</v>
+        <v>17.143291000000001</v>
       </c>
       <c r="BP8" s="1">
-        <v>1994.910000</v>
+        <v>1994.91</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1806.800000</v>
+        <v>-1806.8</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>61727.441720</v>
+        <v>61727.441720000003</v>
       </c>
       <c r="BT8" s="1">
-        <v>17.146512</v>
+        <v>17.146512000000001</v>
       </c>
       <c r="BU8" s="1">
-        <v>2385.680000</v>
+        <v>2385.6799999999998</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2672.880000</v>
+        <v>-2672.88</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>61738.194040</v>
+        <v>61738.194040000002</v>
       </c>
       <c r="BY8" s="1">
-        <v>17.149498</v>
+        <v>17.149498000000001</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2871.890000</v>
+        <v>2871.89</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3617.960000</v>
+        <v>-3617.96</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>61750.660457</v>
+        <v>61750.660456999998</v>
       </c>
       <c r="CD8" s="1">
-        <v>17.152961</v>
+        <v>17.152961000000001</v>
       </c>
       <c r="CE8" s="1">
-        <v>4275.540000</v>
+        <v>4275.54</v>
       </c>
       <c r="CF8" s="1">
-        <v>-5869.070000</v>
+        <v>-5869.07</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>61576.334033</v>
+        <v>61576.334032999999</v>
       </c>
       <c r="B9" s="1">
-        <v>17.104537</v>
+        <v>17.104537000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>1248.810000</v>
+        <v>1248.81</v>
       </c>
       <c r="D9" s="1">
-        <v>-303.938000</v>
+        <v>-303.93799999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>61586.379046</v>
+        <v>61586.379046000002</v>
       </c>
       <c r="G9" s="1">
-        <v>17.107328</v>
+        <v>17.107327999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>1272.270000</v>
+        <v>1272.27</v>
       </c>
       <c r="I9" s="1">
-        <v>-262.441000</v>
+        <v>-262.44099999999997</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>61596.545544</v>
+        <v>61596.545544000001</v>
       </c>
       <c r="L9" s="1">
-        <v>17.110152</v>
+        <v>17.110151999999999</v>
       </c>
       <c r="M9" s="1">
-        <v>1307.570000</v>
+        <v>1307.57</v>
       </c>
       <c r="N9" s="1">
-        <v>-201.793000</v>
+        <v>-201.79300000000001</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>61607.081560</v>
+        <v>61607.081559999999</v>
       </c>
       <c r="Q9" s="1">
-        <v>17.113078</v>
+        <v>17.113078000000002</v>
       </c>
       <c r="R9" s="1">
-        <v>1319.210000</v>
+        <v>1319.21</v>
       </c>
       <c r="S9" s="1">
-        <v>-184.026000</v>
+        <v>-184.02600000000001</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>61617.593737</v>
+        <v>61617.593737000003</v>
       </c>
       <c r="V9" s="1">
-        <v>17.115998</v>
+        <v>17.115998000000001</v>
       </c>
       <c r="W9" s="1">
-        <v>1332.490000</v>
+        <v>1332.49</v>
       </c>
       <c r="X9" s="1">
-        <v>-170.745000</v>
+        <v>-170.745</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>61628.112891</v>
+        <v>61628.112890999997</v>
       </c>
       <c r="AA9" s="1">
-        <v>17.118920</v>
+        <v>17.118919999999999</v>
       </c>
       <c r="AB9" s="1">
-        <v>1350.180000</v>
+        <v>1350.18</v>
       </c>
       <c r="AC9" s="1">
-        <v>-169.232000</v>
+        <v>-169.232</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>61638.629072</v>
+        <v>61638.629072000003</v>
       </c>
       <c r="AF9" s="1">
         <v>17.121841</v>
       </c>
       <c r="AG9" s="1">
-        <v>1363.280000</v>
+        <v>1363.28</v>
       </c>
       <c r="AH9" s="1">
-        <v>-179.266000</v>
+        <v>-179.26599999999999</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
         <v>61649.116016</v>
       </c>
       <c r="AK9" s="1">
-        <v>17.124754</v>
+        <v>17.124753999999999</v>
       </c>
       <c r="AL9" s="1">
-        <v>1384.420000</v>
+        <v>1384.42</v>
       </c>
       <c r="AM9" s="1">
-        <v>-209.211000</v>
+        <v>-209.21100000000001</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>61659.851393</v>
+        <v>61659.851392999997</v>
       </c>
       <c r="AP9" s="1">
-        <v>17.127736</v>
+        <v>17.127735999999999</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1406.630000</v>
+        <v>1406.63</v>
       </c>
       <c r="AR9" s="1">
-        <v>-253.046000</v>
+        <v>-253.04599999999999</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>61670.840259</v>
+        <v>61670.840258999997</v>
       </c>
       <c r="AU9" s="1">
         <v>17.130789</v>
       </c>
       <c r="AV9" s="1">
-        <v>1431.860000</v>
+        <v>1431.86</v>
       </c>
       <c r="AW9" s="1">
-        <v>-312.706000</v>
+        <v>-312.70600000000002</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>61681.809286</v>
+        <v>61681.809286000003</v>
       </c>
       <c r="AZ9" s="1">
-        <v>17.133836</v>
+        <v>17.133835999999999</v>
       </c>
       <c r="BA9" s="1">
-        <v>1451.570000</v>
+        <v>1451.57</v>
       </c>
       <c r="BB9" s="1">
-        <v>-364.321000</v>
+        <v>-364.32100000000003</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
         <v>61693.439973</v>
       </c>
       <c r="BE9" s="1">
-        <v>17.137067</v>
+        <v>17.137066999999998</v>
       </c>
       <c r="BF9" s="1">
-        <v>1538.610000</v>
+        <v>1538.61</v>
       </c>
       <c r="BG9" s="1">
-        <v>-610.487000</v>
+        <v>-610.48699999999997</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
         <v>61704.868294</v>
@@ -2460,1011 +2876,1011 @@
         <v>17.140241</v>
       </c>
       <c r="BK9" s="1">
-        <v>1695.910000</v>
+        <v>1695.91</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1049.940000</v>
+        <v>-1049.94</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>61716.242087</v>
+        <v>61716.242086999999</v>
       </c>
       <c r="BO9" s="1">
-        <v>17.143401</v>
+        <v>17.143401000000001</v>
       </c>
       <c r="BP9" s="1">
-        <v>1994.830000</v>
+        <v>1994.83</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1806.760000</v>
+        <v>-1806.76</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>61727.867784</v>
+        <v>61727.867784000002</v>
       </c>
       <c r="BT9" s="1">
-        <v>17.146630</v>
+        <v>17.146629999999998</v>
       </c>
       <c r="BU9" s="1">
-        <v>2385.710000</v>
+        <v>2385.71</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2672.870000</v>
+        <v>-2672.87</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>61738.938026</v>
+        <v>61738.938026000003</v>
       </c>
       <c r="BY9" s="1">
-        <v>17.149705</v>
+        <v>17.149705000000001</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2871.640000</v>
+        <v>2871.64</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3617.870000</v>
+        <v>-3617.87</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>61751.199593</v>
+        <v>61751.199592999998</v>
       </c>
       <c r="CD9" s="1">
-        <v>17.153111</v>
+        <v>17.153110999999999</v>
       </c>
       <c r="CE9" s="1">
-        <v>4288.320000</v>
+        <v>4288.32</v>
       </c>
       <c r="CF9" s="1">
-        <v>-5882.570000</v>
+        <v>-5882.57</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>61576.674783</v>
+        <v>61576.674783000002</v>
       </c>
       <c r="B10" s="1">
-        <v>17.104632</v>
+        <v>17.104631999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>1248.320000</v>
+        <v>1248.32</v>
       </c>
       <c r="D10" s="1">
-        <v>-303.529000</v>
+        <v>-303.529</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>61586.722771</v>
+        <v>61586.722771000001</v>
       </c>
       <c r="G10" s="1">
-        <v>17.107423</v>
+        <v>17.107423000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>1273.080000</v>
+        <v>1273.08</v>
       </c>
       <c r="I10" s="1">
-        <v>-261.481000</v>
+        <v>-261.48099999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>61597.205220</v>
+        <v>61597.205220000003</v>
       </c>
       <c r="L10" s="1">
-        <v>17.110335</v>
+        <v>17.110334999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>1307.330000</v>
+        <v>1307.33</v>
       </c>
       <c r="N10" s="1">
-        <v>-201.650000</v>
+        <v>-201.65</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>61607.466424</v>
+        <v>61607.466423999998</v>
       </c>
       <c r="Q10" s="1">
-        <v>17.113185</v>
+        <v>17.113185000000001</v>
       </c>
       <c r="R10" s="1">
-        <v>1319.220000</v>
+        <v>1319.22</v>
       </c>
       <c r="S10" s="1">
-        <v>-183.881000</v>
+        <v>-183.881</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>61617.967256</v>
+        <v>61617.967256000004</v>
       </c>
       <c r="V10" s="1">
-        <v>17.116102</v>
+        <v>17.116102000000001</v>
       </c>
       <c r="W10" s="1">
-        <v>1332.670000</v>
+        <v>1332.67</v>
       </c>
       <c r="X10" s="1">
-        <v>-170.971000</v>
+        <v>-170.971</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>61628.460091</v>
+        <v>61628.460091000001</v>
       </c>
       <c r="AA10" s="1">
-        <v>17.119017</v>
+        <v>17.119016999999999</v>
       </c>
       <c r="AB10" s="1">
-        <v>1350.270000</v>
+        <v>1350.27</v>
       </c>
       <c r="AC10" s="1">
-        <v>-169.358000</v>
+        <v>-169.358</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>61638.976270</v>
+        <v>61638.976269999999</v>
       </c>
       <c r="AF10" s="1">
         <v>17.121938</v>
       </c>
       <c r="AG10" s="1">
-        <v>1363.220000</v>
+        <v>1363.22</v>
       </c>
       <c r="AH10" s="1">
-        <v>-179.207000</v>
+        <v>-179.20699999999999</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>61649.466697</v>
+        <v>61649.466697000003</v>
       </c>
       <c r="AK10" s="1">
-        <v>17.124852</v>
+        <v>17.124852000000001</v>
       </c>
       <c r="AL10" s="1">
-        <v>1384.480000</v>
+        <v>1384.48</v>
       </c>
       <c r="AM10" s="1">
-        <v>-209.254000</v>
+        <v>-209.25399999999999</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>61660.272498</v>
+        <v>61660.272497999998</v>
       </c>
       <c r="AP10" s="1">
-        <v>17.127853</v>
+        <v>17.127853000000002</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1406.650000</v>
+        <v>1406.65</v>
       </c>
       <c r="AR10" s="1">
-        <v>-252.996000</v>
+        <v>-252.99600000000001</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>61671.270291</v>
+        <v>61671.270291000001</v>
       </c>
       <c r="AU10" s="1">
-        <v>17.130908</v>
+        <v>17.130908000000002</v>
       </c>
       <c r="AV10" s="1">
-        <v>1431.880000</v>
+        <v>1431.88</v>
       </c>
       <c r="AW10" s="1">
-        <v>-312.682000</v>
+        <v>-312.68200000000002</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>61682.100934</v>
+        <v>61682.100934000002</v>
       </c>
       <c r="AZ10" s="1">
         <v>17.133917</v>
       </c>
       <c r="BA10" s="1">
-        <v>1451.590000</v>
+        <v>1451.59</v>
       </c>
       <c r="BB10" s="1">
-        <v>-364.307000</v>
+        <v>-364.30700000000002</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>61693.802085</v>
+        <v>61693.802085000003</v>
       </c>
       <c r="BE10" s="1">
-        <v>17.137167</v>
+        <v>17.137167000000002</v>
       </c>
       <c r="BF10" s="1">
-        <v>1538.560000</v>
+        <v>1538.56</v>
       </c>
       <c r="BG10" s="1">
-        <v>-610.468000</v>
+        <v>-610.46799999999996</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>61705.309735</v>
+        <v>61705.309735000003</v>
       </c>
       <c r="BJ10" s="1">
-        <v>17.140364</v>
+        <v>17.140364000000002</v>
       </c>
       <c r="BK10" s="1">
-        <v>1695.930000</v>
+        <v>1695.93</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1049.860000</v>
+        <v>-1049.8599999999999</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>61716.664648</v>
+        <v>61716.664647999998</v>
       </c>
       <c r="BO10" s="1">
         <v>17.143518</v>
       </c>
       <c r="BP10" s="1">
-        <v>1994.820000</v>
+        <v>1994.82</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1806.700000</v>
+        <v>-1806.7</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
         <v>61728.292855</v>
       </c>
       <c r="BT10" s="1">
-        <v>17.146748</v>
+        <v>17.146747999999999</v>
       </c>
       <c r="BU10" s="1">
-        <v>2385.810000</v>
+        <v>2385.81</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2672.900000</v>
+        <v>-2672.9</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>61739.475657</v>
+        <v>61739.475657000003</v>
       </c>
       <c r="BY10" s="1">
-        <v>17.149854</v>
+        <v>17.149854000000001</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2871.210000</v>
+        <v>2871.21</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3618.530000</v>
+        <v>-3618.53</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>61751.741226</v>
+        <v>61751.741225999998</v>
       </c>
       <c r="CD10" s="1">
-        <v>17.153261</v>
+        <v>17.153261000000001</v>
       </c>
       <c r="CE10" s="1">
-        <v>4287.710000</v>
+        <v>4287.71</v>
       </c>
       <c r="CF10" s="1">
-        <v>-5865.230000</v>
+        <v>-5865.23</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>61577.345871</v>
+        <v>61577.345870999998</v>
       </c>
       <c r="B11" s="1">
-        <v>17.104818</v>
+        <v>17.104818000000002</v>
       </c>
       <c r="C11" s="1">
-        <v>1248.410000</v>
+        <v>1248.4100000000001</v>
       </c>
       <c r="D11" s="1">
-        <v>-303.904000</v>
+        <v>-303.904</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>61587.383905</v>
+        <v>61587.383905000002</v>
       </c>
       <c r="G11" s="1">
-        <v>17.107607</v>
+        <v>17.107607000000002</v>
       </c>
       <c r="H11" s="1">
-        <v>1273.520000</v>
+        <v>1273.52</v>
       </c>
       <c r="I11" s="1">
-        <v>-262.568000</v>
+        <v>-262.56799999999998</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>61597.580660</v>
+        <v>61597.58066</v>
       </c>
       <c r="L11" s="1">
         <v>17.110439</v>
       </c>
       <c r="M11" s="1">
-        <v>1307.220000</v>
+        <v>1307.22</v>
       </c>
       <c r="N11" s="1">
-        <v>-201.507000</v>
+        <v>-201.50700000000001</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>61607.814136</v>
+        <v>61607.814136000001</v>
       </c>
       <c r="Q11" s="1">
-        <v>17.113282</v>
+        <v>17.113282000000002</v>
       </c>
       <c r="R11" s="1">
-        <v>1319.290000</v>
+        <v>1319.29</v>
       </c>
       <c r="S11" s="1">
-        <v>-183.929000</v>
+        <v>-183.929</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>61618.312937</v>
+        <v>61618.312937000002</v>
       </c>
       <c r="V11" s="1">
-        <v>17.116198</v>
+        <v>17.116198000000001</v>
       </c>
       <c r="W11" s="1">
-        <v>1332.380000</v>
+        <v>1332.38</v>
       </c>
       <c r="X11" s="1">
-        <v>-171.060000</v>
+        <v>-171.06</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>61628.810764</v>
+        <v>61628.810764000002</v>
       </c>
       <c r="AA11" s="1">
         <v>17.119114</v>
       </c>
       <c r="AB11" s="1">
-        <v>1350.130000</v>
+        <v>1350.13</v>
       </c>
       <c r="AC11" s="1">
-        <v>-169.172000</v>
+        <v>-169.172</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>61639.394894</v>
+        <v>61639.394893999997</v>
       </c>
       <c r="AF11" s="1">
-        <v>17.122054</v>
+        <v>17.122053999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>1363.270000</v>
+        <v>1363.27</v>
       </c>
       <c r="AH11" s="1">
-        <v>-179.149000</v>
+        <v>-179.149</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>61649.889246</v>
+        <v>61649.889245999999</v>
       </c>
       <c r="AK11" s="1">
         <v>17.124969</v>
       </c>
       <c r="AL11" s="1">
-        <v>1384.480000</v>
+        <v>1384.48</v>
       </c>
       <c r="AM11" s="1">
-        <v>-209.249000</v>
+        <v>-209.249</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>61660.570593</v>
+        <v>61660.570592999997</v>
       </c>
       <c r="AP11" s="1">
-        <v>17.127936</v>
+        <v>17.127935999999998</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1406.670000</v>
+        <v>1406.67</v>
       </c>
       <c r="AR11" s="1">
-        <v>-253.022000</v>
+        <v>-253.02199999999999</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>61671.570371</v>
+        <v>61671.570371000002</v>
       </c>
       <c r="AU11" s="1">
-        <v>17.130992</v>
+        <v>17.130991999999999</v>
       </c>
       <c r="AV11" s="1">
-        <v>1431.870000</v>
+        <v>1431.87</v>
       </c>
       <c r="AW11" s="1">
-        <v>-312.627000</v>
+        <v>-312.62700000000001</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>61682.461029</v>
+        <v>61682.461028999998</v>
       </c>
       <c r="AZ11" s="1">
         <v>17.134017</v>
       </c>
       <c r="BA11" s="1">
-        <v>1451.610000</v>
+        <v>1451.61</v>
       </c>
       <c r="BB11" s="1">
-        <v>-364.320000</v>
+        <v>-364.32</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>61694.162645</v>
+        <v>61694.162644999997</v>
       </c>
       <c r="BE11" s="1">
-        <v>17.137267</v>
+        <v>17.137267000000001</v>
       </c>
       <c r="BF11" s="1">
-        <v>1538.520000</v>
+        <v>1538.52</v>
       </c>
       <c r="BG11" s="1">
-        <v>-610.473000</v>
+        <v>-610.47299999999996</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>61705.942628</v>
+        <v>61705.942627999997</v>
       </c>
       <c r="BJ11" s="1">
-        <v>17.140540</v>
+        <v>17.140540000000001</v>
       </c>
       <c r="BK11" s="1">
-        <v>1695.890000</v>
+        <v>1695.89</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1049.770000</v>
+        <v>-1049.77</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>61717.493958</v>
+        <v>61717.493957999999</v>
       </c>
       <c r="BO11" s="1">
-        <v>17.143748</v>
+        <v>17.143747999999999</v>
       </c>
       <c r="BP11" s="1">
-        <v>1994.780000</v>
+        <v>1994.78</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1806.720000</v>
+        <v>-1806.72</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
         <v>61728.710519</v>
       </c>
       <c r="BT11" s="1">
-        <v>17.146864</v>
+        <v>17.146864000000001</v>
       </c>
       <c r="BU11" s="1">
-        <v>2385.650000</v>
+        <v>2385.65</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2672.620000</v>
+        <v>-2672.62</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
         <v>61739.903241</v>
       </c>
       <c r="BY11" s="1">
-        <v>17.149973</v>
+        <v>17.149972999999999</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2871.610000</v>
+        <v>2871.61</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3618.550000</v>
+        <v>-3618.55</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
         <v>61752.279916</v>
       </c>
       <c r="CD11" s="1">
-        <v>17.153411</v>
+        <v>17.153410999999998</v>
       </c>
       <c r="CE11" s="1">
-        <v>4273.130000</v>
+        <v>4273.13</v>
       </c>
       <c r="CF11" s="1">
-        <v>-5876.620000</v>
+        <v>-5876.62</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>61577.689103</v>
+        <v>61577.689102999997</v>
       </c>
       <c r="B12" s="1">
-        <v>17.104914</v>
+        <v>17.104914000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>1248.680000</v>
+        <v>1248.68</v>
       </c>
       <c r="D12" s="1">
-        <v>-303.762000</v>
+        <v>-303.762</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>61587.758385</v>
+        <v>61587.758385000001</v>
       </c>
       <c r="G12" s="1">
-        <v>17.107711</v>
+        <v>17.107710999999998</v>
       </c>
       <c r="H12" s="1">
-        <v>1272.670000</v>
+        <v>1272.67</v>
       </c>
       <c r="I12" s="1">
-        <v>-261.846000</v>
+        <v>-261.846</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>61597.925877</v>
+        <v>61597.925877000001</v>
       </c>
       <c r="L12" s="1">
-        <v>17.110535</v>
+        <v>17.110534999999999</v>
       </c>
       <c r="M12" s="1">
-        <v>1307.530000</v>
+        <v>1307.53</v>
       </c>
       <c r="N12" s="1">
-        <v>-201.473000</v>
+        <v>-201.47300000000001</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>61608.164295</v>
+        <v>61608.164295000002</v>
       </c>
       <c r="Q12" s="1">
-        <v>17.113379</v>
+        <v>17.113378999999998</v>
       </c>
       <c r="R12" s="1">
-        <v>1319.160000</v>
+        <v>1319.16</v>
       </c>
       <c r="S12" s="1">
-        <v>-183.991000</v>
+        <v>-183.99100000000001</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>61618.662120</v>
+        <v>61618.662120000001</v>
       </c>
       <c r="V12" s="1">
-        <v>17.116295</v>
+        <v>17.116295000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>1332.360000</v>
+        <v>1332.36</v>
       </c>
       <c r="X12" s="1">
-        <v>-171.022000</v>
+        <v>-171.02199999999999</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>61629.231371</v>
+        <v>61629.231371000002</v>
       </c>
       <c r="AA12" s="1">
-        <v>17.119231</v>
+        <v>17.119230999999999</v>
       </c>
       <c r="AB12" s="1">
-        <v>1350.130000</v>
+        <v>1350.13</v>
       </c>
       <c r="AC12" s="1">
-        <v>-169.275000</v>
+        <v>-169.27500000000001</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>61639.671460</v>
+        <v>61639.671459999998</v>
       </c>
       <c r="AF12" s="1">
         <v>17.122131</v>
       </c>
       <c r="AG12" s="1">
-        <v>1363.310000</v>
+        <v>1363.31</v>
       </c>
       <c r="AH12" s="1">
-        <v>-179.211000</v>
+        <v>-179.21100000000001</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
         <v>61650.182878</v>
       </c>
       <c r="AK12" s="1">
-        <v>17.125051</v>
+        <v>17.125050999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>1384.470000</v>
+        <v>1384.47</v>
       </c>
       <c r="AM12" s="1">
-        <v>-209.213000</v>
+        <v>-209.21299999999999</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
         <v>61660.930192</v>
       </c>
       <c r="AP12" s="1">
-        <v>17.128036</v>
+        <v>17.128036000000002</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1406.660000</v>
+        <v>1406.66</v>
       </c>
       <c r="AR12" s="1">
-        <v>-252.994000</v>
+        <v>-252.994</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>61672.164578</v>
+        <v>61672.164578000004</v>
       </c>
       <c r="AU12" s="1">
-        <v>17.131157</v>
+        <v>17.131157000000002</v>
       </c>
       <c r="AV12" s="1">
-        <v>1431.830000</v>
+        <v>1431.83</v>
       </c>
       <c r="AW12" s="1">
-        <v>-312.528000</v>
+        <v>-312.52800000000002</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>61682.820627</v>
+        <v>61682.820627000001</v>
       </c>
       <c r="AZ12" s="1">
         <v>17.134117</v>
       </c>
       <c r="BA12" s="1">
-        <v>1451.770000</v>
+        <v>1451.77</v>
       </c>
       <c r="BB12" s="1">
-        <v>-364.529000</v>
+        <v>-364.529</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>61694.886845</v>
+        <v>61694.886845000001</v>
       </c>
       <c r="BE12" s="1">
-        <v>17.137469</v>
+        <v>17.137468999999999</v>
       </c>
       <c r="BF12" s="1">
-        <v>1538.530000</v>
+        <v>1538.53</v>
       </c>
       <c r="BG12" s="1">
-        <v>-610.527000</v>
+        <v>-610.52700000000004</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>61706.387578</v>
+        <v>61706.387578000002</v>
       </c>
       <c r="BJ12" s="1">
         <v>17.140663</v>
       </c>
       <c r="BK12" s="1">
-        <v>1695.890000</v>
+        <v>1695.89</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1049.840000</v>
+        <v>-1049.8399999999999</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>61717.905638</v>
+        <v>61717.905637999997</v>
       </c>
       <c r="BO12" s="1">
         <v>17.143863</v>
       </c>
       <c r="BP12" s="1">
-        <v>1994.730000</v>
+        <v>1994.73</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1806.590000</v>
+        <v>-1806.59</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>61729.138038</v>
+        <v>61729.138037999997</v>
       </c>
       <c r="BT12" s="1">
-        <v>17.146983</v>
+        <v>17.146982999999999</v>
       </c>
       <c r="BU12" s="1">
-        <v>2385.720000</v>
+        <v>2385.7199999999998</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2672.750000</v>
+        <v>-2672.75</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>61740.659608</v>
+        <v>61740.659608000002</v>
       </c>
       <c r="BY12" s="1">
-        <v>17.150183</v>
+        <v>17.150182999999998</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2872.110000</v>
+        <v>2872.11</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3618.670000</v>
+        <v>-3618.67</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>61753.130520</v>
+        <v>61753.130519999999</v>
       </c>
       <c r="CD12" s="1">
-        <v>17.153647</v>
+        <v>17.153646999999999</v>
       </c>
       <c r="CE12" s="1">
-        <v>4284.220000</v>
+        <v>4284.22</v>
       </c>
       <c r="CF12" s="1">
-        <v>-5860.480000</v>
+        <v>-5860.48</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>61578.043595</v>
+        <v>61578.043595000003</v>
       </c>
       <c r="B13" s="1">
-        <v>17.105012</v>
+        <v>17.105011999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>1248.400000</v>
+        <v>1248.4000000000001</v>
       </c>
       <c r="D13" s="1">
-        <v>-303.541000</v>
+        <v>-303.541</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>61588.106576</v>
+        <v>61588.106575999998</v>
       </c>
       <c r="G13" s="1">
-        <v>17.107807</v>
+        <v>17.107807000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>1272.110000</v>
+        <v>1272.1099999999999</v>
       </c>
       <c r="I13" s="1">
-        <v>-263.068000</v>
+        <v>-263.06799999999998</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>61598.272581</v>
+        <v>61598.272580999997</v>
       </c>
       <c r="L13" s="1">
-        <v>17.110631</v>
+        <v>17.110631000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>1307.520000</v>
+        <v>1307.52</v>
       </c>
       <c r="N13" s="1">
-        <v>-201.261000</v>
+        <v>-201.261</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>61608.597836</v>
+        <v>61608.597836000001</v>
       </c>
       <c r="Q13" s="1">
-        <v>17.113499</v>
+        <v>17.113499000000001</v>
       </c>
       <c r="R13" s="1">
-        <v>1319.230000</v>
+        <v>1319.23</v>
       </c>
       <c r="S13" s="1">
-        <v>-183.980000</v>
+        <v>-183.98</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>61619.093184</v>
+        <v>61619.093183999998</v>
       </c>
       <c r="V13" s="1">
         <v>17.116415</v>
       </c>
       <c r="W13" s="1">
-        <v>1332.490000</v>
+        <v>1332.49</v>
       </c>
       <c r="X13" s="1">
-        <v>-170.894000</v>
+        <v>-170.89400000000001</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
         <v>61629.503674</v>
       </c>
       <c r="AA13" s="1">
-        <v>17.119307</v>
+        <v>17.119306999999999</v>
       </c>
       <c r="AB13" s="1">
-        <v>1350.200000</v>
+        <v>1350.2</v>
       </c>
       <c r="AC13" s="1">
-        <v>-169.228000</v>
+        <v>-169.22800000000001</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>61640.011916</v>
+        <v>61640.011916000003</v>
       </c>
       <c r="AF13" s="1">
-        <v>17.122226</v>
+        <v>17.122226000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>1363.310000</v>
+        <v>1363.31</v>
       </c>
       <c r="AH13" s="1">
-        <v>-179.263000</v>
+        <v>-179.26300000000001</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>61650.531071</v>
+        <v>61650.531070999998</v>
       </c>
       <c r="AK13" s="1">
-        <v>17.125148</v>
+        <v>17.125147999999999</v>
       </c>
       <c r="AL13" s="1">
-        <v>1384.460000</v>
+        <v>1384.46</v>
       </c>
       <c r="AM13" s="1">
-        <v>-209.241000</v>
+        <v>-209.24100000000001</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>61661.289793</v>
+        <v>61661.289793000004</v>
       </c>
       <c r="AP13" s="1">
-        <v>17.128136</v>
+        <v>17.128136000000001</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1406.670000</v>
+        <v>1406.67</v>
       </c>
       <c r="AR13" s="1">
-        <v>-253.014000</v>
+        <v>-253.01400000000001</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>61672.764280</v>
+        <v>61672.764280000003</v>
       </c>
       <c r="AU13" s="1">
-        <v>17.131323</v>
+        <v>17.131322999999998</v>
       </c>
       <c r="AV13" s="1">
-        <v>1431.790000</v>
+        <v>1431.79</v>
       </c>
       <c r="AW13" s="1">
-        <v>-312.636000</v>
+        <v>-312.63600000000002</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>61683.758066</v>
+        <v>61683.758066000002</v>
       </c>
       <c r="AZ13" s="1">
-        <v>17.134377</v>
+        <v>17.134377000000001</v>
       </c>
       <c r="BA13" s="1">
-        <v>1451.530000</v>
+        <v>1451.53</v>
       </c>
       <c r="BB13" s="1">
-        <v>-364.367000</v>
+        <v>-364.36700000000002</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
         <v>61695.277682</v>
@@ -3473,1555 +3889,1555 @@
         <v>17.137577</v>
       </c>
       <c r="BF13" s="1">
-        <v>1538.530000</v>
+        <v>1538.53</v>
       </c>
       <c r="BG13" s="1">
-        <v>-610.492000</v>
+        <v>-610.49199999999996</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>61706.762020</v>
+        <v>61706.762020000002</v>
       </c>
       <c r="BJ13" s="1">
         <v>17.140767</v>
       </c>
       <c r="BK13" s="1">
-        <v>1695.890000</v>
+        <v>1695.89</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1049.810000</v>
+        <v>-1049.81</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>61718.300454</v>
+        <v>61718.300453999997</v>
       </c>
       <c r="BO13" s="1">
-        <v>17.143972</v>
+        <v>17.143972000000002</v>
       </c>
       <c r="BP13" s="1">
-        <v>1994.790000</v>
+        <v>1994.79</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1806.500000</v>
+        <v>-1806.5</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>61729.875628</v>
+        <v>61729.875628000002</v>
       </c>
       <c r="BT13" s="1">
         <v>17.147188</v>
       </c>
       <c r="BU13" s="1">
-        <v>2385.910000</v>
+        <v>2385.91</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2672.660000</v>
+        <v>-2672.66</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>61740.780135</v>
+        <v>61740.780135000001</v>
       </c>
       <c r="BY13" s="1">
-        <v>17.150217</v>
+        <v>17.150217000000001</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2872.000000</v>
+        <v>2872</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3618.620000</v>
+        <v>-3618.62</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>61753.358715</v>
+        <v>61753.358715000002</v>
       </c>
       <c r="CD13" s="1">
-        <v>17.153711</v>
+        <v>17.153711000000001</v>
       </c>
       <c r="CE13" s="1">
-        <v>4286.050000</v>
+        <v>4286.05</v>
       </c>
       <c r="CF13" s="1">
-        <v>-5862.400000</v>
+        <v>-5862.4</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>61578.383501</v>
+        <v>61578.383500999997</v>
       </c>
       <c r="B14" s="1">
         <v>17.105107</v>
       </c>
       <c r="C14" s="1">
-        <v>1248.190000</v>
+        <v>1248.19</v>
       </c>
       <c r="D14" s="1">
-        <v>-304.009000</v>
+        <v>-304.00900000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>61588.445840</v>
+        <v>61588.44584</v>
       </c>
       <c r="G14" s="1">
-        <v>17.107902</v>
+        <v>17.107901999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>1272.520000</v>
+        <v>1272.52</v>
       </c>
       <c r="I14" s="1">
-        <v>-262.388000</v>
+        <v>-262.38799999999998</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>61598.693682</v>
+        <v>61598.693681999997</v>
       </c>
       <c r="L14" s="1">
-        <v>17.110748</v>
+        <v>17.110748000000001</v>
       </c>
       <c r="M14" s="1">
-        <v>1307.390000</v>
+        <v>1307.3900000000001</v>
       </c>
       <c r="N14" s="1">
-        <v>-201.525000</v>
+        <v>-201.52500000000001</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>61608.865674</v>
+        <v>61608.865674000001</v>
       </c>
       <c r="Q14" s="1">
         <v>17.113574</v>
       </c>
       <c r="R14" s="1">
-        <v>1319.230000</v>
+        <v>1319.23</v>
       </c>
       <c r="S14" s="1">
-        <v>-183.976000</v>
+        <v>-183.976</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>61619.363959</v>
+        <v>61619.363959000002</v>
       </c>
       <c r="V14" s="1">
-        <v>17.116490</v>
+        <v>17.116489999999999</v>
       </c>
       <c r="W14" s="1">
-        <v>1332.570000</v>
+        <v>1332.57</v>
       </c>
       <c r="X14" s="1">
-        <v>-171.108000</v>
+        <v>-171.108</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>61629.852859</v>
+        <v>61629.852858999999</v>
       </c>
       <c r="AA14" s="1">
-        <v>17.119404</v>
+        <v>17.119403999999999</v>
       </c>
       <c r="AB14" s="1">
-        <v>1350.130000</v>
+        <v>1350.13</v>
       </c>
       <c r="AC14" s="1">
-        <v>-169.253000</v>
+        <v>-169.25299999999999</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>61640.355680</v>
+        <v>61640.355680000001</v>
       </c>
       <c r="AF14" s="1">
-        <v>17.122321</v>
+        <v>17.122320999999999</v>
       </c>
       <c r="AG14" s="1">
-        <v>1363.420000</v>
+        <v>1363.42</v>
       </c>
       <c r="AH14" s="1">
-        <v>-179.256000</v>
+        <v>-179.256</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>61650.879291</v>
+        <v>61650.879290999997</v>
       </c>
       <c r="AK14" s="1">
-        <v>17.125244</v>
+        <v>17.125243999999999</v>
       </c>
       <c r="AL14" s="1">
-        <v>1384.470000</v>
+        <v>1384.47</v>
       </c>
       <c r="AM14" s="1">
-        <v>-209.215000</v>
+        <v>-209.215</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>61662.010976</v>
+        <v>61662.010975999998</v>
       </c>
       <c r="AP14" s="1">
-        <v>17.128336</v>
+        <v>17.128336000000001</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1406.660000</v>
+        <v>1406.66</v>
       </c>
       <c r="AR14" s="1">
-        <v>-253.015000</v>
+        <v>-253.01499999999999</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>61672.933872</v>
+        <v>61672.933872000001</v>
       </c>
       <c r="AU14" s="1">
-        <v>17.131371</v>
+        <v>17.131371000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>1431.800000</v>
+        <v>1431.8</v>
       </c>
       <c r="AW14" s="1">
-        <v>-312.616000</v>
+        <v>-312.61599999999999</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>61684.137506</v>
+        <v>61684.137505999999</v>
       </c>
       <c r="AZ14" s="1">
-        <v>17.134483</v>
+        <v>17.134482999999999</v>
       </c>
       <c r="BA14" s="1">
-        <v>1451.600000</v>
+        <v>1451.6</v>
       </c>
       <c r="BB14" s="1">
-        <v>-364.323000</v>
+        <v>-364.32299999999998</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>61695.636754</v>
+        <v>61695.636753999999</v>
       </c>
       <c r="BE14" s="1">
         <v>17.137677</v>
       </c>
       <c r="BF14" s="1">
-        <v>1538.590000</v>
+        <v>1538.59</v>
       </c>
       <c r="BG14" s="1">
-        <v>-610.489000</v>
+        <v>-610.48900000000003</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>61707.445507</v>
+        <v>61707.445506999997</v>
       </c>
       <c r="BJ14" s="1">
         <v>17.140957</v>
       </c>
       <c r="BK14" s="1">
-        <v>1695.870000</v>
+        <v>1695.87</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1049.740000</v>
+        <v>-1049.74</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
         <v>61719.038041</v>
       </c>
       <c r="BO14" s="1">
-        <v>17.144177</v>
+        <v>17.144176999999999</v>
       </c>
       <c r="BP14" s="1">
-        <v>1994.840000</v>
+        <v>1994.84</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1806.580000</v>
+        <v>-1806.58</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>61729.987721</v>
+        <v>61729.987720999998</v>
       </c>
       <c r="BT14" s="1">
         <v>17.147219</v>
       </c>
       <c r="BU14" s="1">
-        <v>2386.100000</v>
+        <v>2386.1</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2672.730000</v>
+        <v>-2672.73</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>61741.220118</v>
+        <v>61741.220117999997</v>
       </c>
       <c r="BY14" s="1">
-        <v>17.150339</v>
+        <v>17.150338999999999</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2871.730000</v>
+        <v>2871.73</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3617.990000</v>
+        <v>-3617.99</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>61753.879973</v>
+        <v>61753.879973000003</v>
       </c>
       <c r="CD14" s="1">
-        <v>17.153856</v>
+        <v>17.153856000000001</v>
       </c>
       <c r="CE14" s="1">
-        <v>4275.760000</v>
+        <v>4275.76</v>
       </c>
       <c r="CF14" s="1">
-        <v>-5872.410000</v>
+        <v>-5872.41</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>61578.821005</v>
+        <v>61578.821004999998</v>
       </c>
       <c r="B15" s="1">
         <v>17.105228</v>
       </c>
       <c r="C15" s="1">
-        <v>1248.510000</v>
+        <v>1248.51</v>
       </c>
       <c r="D15" s="1">
-        <v>-304.048000</v>
+        <v>-304.048</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>61588.899185</v>
+        <v>61588.899185000002</v>
       </c>
       <c r="G15" s="1">
-        <v>17.108028</v>
+        <v>17.108028000000001</v>
       </c>
       <c r="H15" s="1">
-        <v>1272.630000</v>
+        <v>1272.6300000000001</v>
       </c>
       <c r="I15" s="1">
-        <v>-262.467000</v>
+        <v>-262.46699999999998</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>61598.982882</v>
+        <v>61598.982881999997</v>
       </c>
       <c r="L15" s="1">
-        <v>17.110829</v>
+        <v>17.110828999999999</v>
       </c>
       <c r="M15" s="1">
-        <v>1307.480000</v>
+        <v>1307.48</v>
       </c>
       <c r="N15" s="1">
-        <v>-201.424000</v>
+        <v>-201.42400000000001</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>61609.209897</v>
+        <v>61609.209897000001</v>
       </c>
       <c r="Q15" s="1">
-        <v>17.113669</v>
+        <v>17.113669000000002</v>
       </c>
       <c r="R15" s="1">
-        <v>1319.210000</v>
+        <v>1319.21</v>
       </c>
       <c r="S15" s="1">
-        <v>-183.992000</v>
+        <v>-183.99199999999999</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>61619.710199</v>
+        <v>61619.710199000001</v>
       </c>
       <c r="V15" s="1">
-        <v>17.116586</v>
+        <v>17.116586000000002</v>
       </c>
       <c r="W15" s="1">
-        <v>1332.580000</v>
+        <v>1332.58</v>
       </c>
       <c r="X15" s="1">
-        <v>-170.894000</v>
+        <v>-170.89400000000001</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>61630.203034</v>
+        <v>61630.203033999998</v>
       </c>
       <c r="AA15" s="1">
         <v>17.119501</v>
       </c>
       <c r="AB15" s="1">
-        <v>1350.240000</v>
+        <v>1350.24</v>
       </c>
       <c r="AC15" s="1">
-        <v>-169.276000</v>
+        <v>-169.27600000000001</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
         <v>61641.041114</v>
       </c>
       <c r="AF15" s="1">
-        <v>17.122511</v>
+        <v>17.122510999999999</v>
       </c>
       <c r="AG15" s="1">
-        <v>1363.380000</v>
+        <v>1363.38</v>
       </c>
       <c r="AH15" s="1">
-        <v>-178.995000</v>
+        <v>-178.995</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>61651.576668</v>
+        <v>61651.576668000002</v>
       </c>
       <c r="AK15" s="1">
-        <v>17.125438</v>
+        <v>17.125437999999999</v>
       </c>
       <c r="AL15" s="1">
-        <v>1384.460000</v>
+        <v>1384.46</v>
       </c>
       <c r="AM15" s="1">
-        <v>-209.236000</v>
+        <v>-209.23599999999999</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>61662.398350</v>
+        <v>61662.398350000003</v>
       </c>
       <c r="AP15" s="1">
-        <v>17.128444</v>
+        <v>17.128443999999998</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1406.670000</v>
+        <v>1406.67</v>
       </c>
       <c r="AR15" s="1">
-        <v>-253.019000</v>
+        <v>-253.01900000000001</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>61673.298467</v>
+        <v>61673.298467000001</v>
       </c>
       <c r="AU15" s="1">
-        <v>17.131472</v>
+        <v>17.131471999999999</v>
       </c>
       <c r="AV15" s="1">
-        <v>1431.780000</v>
+        <v>1431.78</v>
       </c>
       <c r="AW15" s="1">
-        <v>-312.632000</v>
+        <v>-312.63200000000001</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>61684.497601</v>
+        <v>61684.497601000003</v>
       </c>
       <c r="AZ15" s="1">
-        <v>17.134583</v>
+        <v>17.134582999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>1451.520000</v>
+        <v>1451.52</v>
       </c>
       <c r="BB15" s="1">
-        <v>-364.355000</v>
+        <v>-364.35500000000002</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>61696.316416</v>
+        <v>61696.316416000001</v>
       </c>
       <c r="BE15" s="1">
-        <v>17.137866</v>
+        <v>17.137865999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1538.530000</v>
+        <v>1538.53</v>
       </c>
       <c r="BG15" s="1">
-        <v>-610.444000</v>
+        <v>-610.44399999999996</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>61707.918195</v>
+        <v>61707.918194999998</v>
       </c>
       <c r="BJ15" s="1">
         <v>17.141088</v>
       </c>
       <c r="BK15" s="1">
-        <v>1695.860000</v>
+        <v>1695.86</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1049.800000</v>
+        <v>-1049.8</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>61719.148613</v>
+        <v>61719.148612999998</v>
       </c>
       <c r="BO15" s="1">
-        <v>17.144208</v>
+        <v>17.144207999999999</v>
       </c>
       <c r="BP15" s="1">
-        <v>1994.760000</v>
+        <v>1994.76</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1806.630000</v>
+        <v>-1806.63</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>61730.420232</v>
+        <v>61730.420231999997</v>
       </c>
       <c r="BT15" s="1">
-        <v>17.147339</v>
+        <v>17.147338999999999</v>
       </c>
       <c r="BU15" s="1">
-        <v>2385.940000</v>
+        <v>2385.94</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2672.320000</v>
+        <v>-2672.32</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>61741.679909</v>
+        <v>61741.679908999999</v>
       </c>
       <c r="BY15" s="1">
-        <v>17.150467</v>
+        <v>17.150466999999999</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2871.070000</v>
+        <v>2871.07</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3617.590000</v>
+        <v>-3617.59</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>61754.398293</v>
+        <v>61754.398292999998</v>
       </c>
       <c r="CD15" s="1">
-        <v>17.154000</v>
+        <v>17.154</v>
       </c>
       <c r="CE15" s="1">
-        <v>4276.140000</v>
+        <v>4276.1400000000003</v>
       </c>
       <c r="CF15" s="1">
-        <v>-5866.000000</v>
+        <v>-5866</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>61579.084385</v>
+        <v>61579.084385000002</v>
       </c>
       <c r="B16" s="1">
-        <v>17.105301</v>
+        <v>17.105301000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>1248.560000</v>
+        <v>1248.56</v>
       </c>
       <c r="D16" s="1">
-        <v>-303.694000</v>
+        <v>-303.69400000000002</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>61589.137791</v>
+        <v>61589.137791000001</v>
       </c>
       <c r="G16" s="1">
-        <v>17.108094</v>
+        <v>17.108094000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>1273.860000</v>
+        <v>1273.8599999999999</v>
       </c>
       <c r="I16" s="1">
-        <v>-261.900000</v>
+        <v>-261.89999999999998</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>61599.329090</v>
+        <v>61599.329089999999</v>
       </c>
       <c r="L16" s="1">
-        <v>17.110925</v>
+        <v>17.110925000000002</v>
       </c>
       <c r="M16" s="1">
-        <v>1307.210000</v>
+        <v>1307.21</v>
       </c>
       <c r="N16" s="1">
-        <v>-201.445000</v>
+        <v>-201.44499999999999</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>61609.561524</v>
+        <v>61609.561523999997</v>
       </c>
       <c r="Q16" s="1">
-        <v>17.113767</v>
+        <v>17.113766999999999</v>
       </c>
       <c r="R16" s="1">
-        <v>1319.160000</v>
+        <v>1319.16</v>
       </c>
       <c r="S16" s="1">
-        <v>-183.887000</v>
+        <v>-183.887</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>61620.054422</v>
+        <v>61620.054422000001</v>
       </c>
       <c r="V16" s="1">
-        <v>17.116682</v>
+        <v>17.116682000000001</v>
       </c>
       <c r="W16" s="1">
-        <v>1332.450000</v>
+        <v>1332.45</v>
       </c>
       <c r="X16" s="1">
-        <v>-171.023000</v>
+        <v>-171.023</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>61630.898951</v>
+        <v>61630.898951000003</v>
       </c>
       <c r="AA16" s="1">
-        <v>17.119694</v>
+        <v>17.119693999999999</v>
       </c>
       <c r="AB16" s="1">
-        <v>1350.210000</v>
+        <v>1350.21</v>
       </c>
       <c r="AC16" s="1">
-        <v>-169.385000</v>
+        <v>-169.38499999999999</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>61641.384347</v>
+        <v>61641.384346999999</v>
       </c>
       <c r="AF16" s="1">
-        <v>17.122607</v>
+        <v>17.122606999999999</v>
       </c>
       <c r="AG16" s="1">
-        <v>1363.370000</v>
+        <v>1363.37</v>
       </c>
       <c r="AH16" s="1">
-        <v>-179.178000</v>
+        <v>-179.178</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>61651.925820</v>
+        <v>61651.925819999997</v>
       </c>
       <c r="AK16" s="1">
-        <v>17.125535</v>
+        <v>17.125534999999999</v>
       </c>
       <c r="AL16" s="1">
-        <v>1384.510000</v>
+        <v>1384.51</v>
       </c>
       <c r="AM16" s="1">
-        <v>-209.237000</v>
+        <v>-209.23699999999999</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>61662.756462</v>
+        <v>61662.756461999998</v>
       </c>
       <c r="AP16" s="1">
-        <v>17.128543</v>
+        <v>17.128543000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1406.690000</v>
+        <v>1406.69</v>
       </c>
       <c r="AR16" s="1">
-        <v>-253.013000</v>
+        <v>-253.01300000000001</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>61673.976960</v>
+        <v>61673.97696</v>
       </c>
       <c r="AU16" s="1">
-        <v>17.131660</v>
+        <v>17.13166</v>
       </c>
       <c r="AV16" s="1">
-        <v>1431.780000</v>
+        <v>1431.78</v>
       </c>
       <c r="AW16" s="1">
-        <v>-312.544000</v>
+        <v>-312.54399999999998</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>61685.165252</v>
+        <v>61685.165251999999</v>
       </c>
       <c r="AZ16" s="1">
-        <v>17.134768</v>
+        <v>17.134768000000001</v>
       </c>
       <c r="BA16" s="1">
-        <v>1451.610000</v>
+        <v>1451.61</v>
       </c>
       <c r="BB16" s="1">
-        <v>-364.342000</v>
+        <v>-364.34199999999998</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>61696.748785</v>
+        <v>61696.748785000003</v>
       </c>
       <c r="BE16" s="1">
-        <v>17.137986</v>
+        <v>17.137986000000001</v>
       </c>
       <c r="BF16" s="1">
-        <v>1538.520000</v>
+        <v>1538.52</v>
       </c>
       <c r="BG16" s="1">
-        <v>-610.452000</v>
+        <v>-610.452</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>61708.292214</v>
+        <v>61708.292214000001</v>
       </c>
       <c r="BJ16" s="1">
         <v>17.141192</v>
       </c>
       <c r="BK16" s="1">
-        <v>1695.920000</v>
+        <v>1695.92</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1049.820000</v>
+        <v>-1049.82</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>61719.538962</v>
+        <v>61719.538961999999</v>
       </c>
       <c r="BO16" s="1">
         <v>17.144316</v>
       </c>
       <c r="BP16" s="1">
-        <v>1994.800000</v>
+        <v>1994.8</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1806.550000</v>
+        <v>-1806.55</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>61730.850234</v>
+        <v>61730.850233999998</v>
       </c>
       <c r="BT16" s="1">
         <v>17.147458</v>
       </c>
       <c r="BU16" s="1">
-        <v>2385.980000</v>
+        <v>2385.98</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2672.860000</v>
+        <v>-2672.86</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>61742.129750</v>
+        <v>61742.12975</v>
       </c>
       <c r="BY16" s="1">
         <v>17.150592</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2871.270000</v>
+        <v>2871.27</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3617.350000</v>
+        <v>-3617.35</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>61754.950836</v>
+        <v>61754.950836000004</v>
       </c>
       <c r="CD16" s="1">
-        <v>17.154153</v>
+        <v>17.154153000000001</v>
       </c>
       <c r="CE16" s="1">
-        <v>4286.540000</v>
+        <v>4286.54</v>
       </c>
       <c r="CF16" s="1">
-        <v>-5862.610000</v>
+        <v>-5862.61</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>61579.426852</v>
+        <v>61579.426851999997</v>
       </c>
       <c r="B17" s="1">
-        <v>17.105396</v>
+        <v>17.105395999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>1248.250000</v>
+        <v>1248.25</v>
       </c>
       <c r="D17" s="1">
-        <v>-303.757000</v>
+        <v>-303.75700000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
         <v>61589.483967</v>
       </c>
       <c r="G17" s="1">
-        <v>17.108190</v>
+        <v>17.10819</v>
       </c>
       <c r="H17" s="1">
-        <v>1272.520000</v>
+        <v>1272.52</v>
       </c>
       <c r="I17" s="1">
-        <v>-262.662000</v>
+        <v>-262.66199999999998</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>61599.675267</v>
+        <v>61599.675266999999</v>
       </c>
       <c r="L17" s="1">
-        <v>17.111021</v>
+        <v>17.111021000000001</v>
       </c>
       <c r="M17" s="1">
-        <v>1307.210000</v>
+        <v>1307.21</v>
       </c>
       <c r="N17" s="1">
-        <v>-201.190000</v>
+        <v>-201.19</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>61610.256419</v>
+        <v>61610.256418999998</v>
       </c>
       <c r="Q17" s="1">
-        <v>17.113960</v>
+        <v>17.113959999999999</v>
       </c>
       <c r="R17" s="1">
-        <v>1319.280000</v>
+        <v>1319.28</v>
       </c>
       <c r="S17" s="1">
-        <v>-183.885000</v>
+        <v>-183.88499999999999</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>61620.739863</v>
+        <v>61620.739863000003</v>
       </c>
       <c r="V17" s="1">
-        <v>17.116872</v>
+        <v>17.116872000000001</v>
       </c>
       <c r="W17" s="1">
-        <v>1332.570000</v>
+        <v>1332.57</v>
       </c>
       <c r="X17" s="1">
-        <v>-171.091000</v>
+        <v>-171.09100000000001</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>61631.246617</v>
+        <v>61631.246616999997</v>
       </c>
       <c r="AA17" s="1">
-        <v>17.119791</v>
+        <v>17.119790999999999</v>
       </c>
       <c r="AB17" s="1">
-        <v>1350.180000</v>
+        <v>1350.18</v>
       </c>
       <c r="AC17" s="1">
-        <v>-169.210000</v>
+        <v>-169.21</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>61641.728074</v>
+        <v>61641.728073999999</v>
       </c>
       <c r="AF17" s="1">
         <v>17.122702</v>
       </c>
       <c r="AG17" s="1">
-        <v>1363.360000</v>
+        <v>1363.36</v>
       </c>
       <c r="AH17" s="1">
-        <v>-179.208000</v>
+        <v>-179.208</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>61652.272555</v>
+        <v>61652.272555000003</v>
       </c>
       <c r="AK17" s="1">
-        <v>17.125631</v>
+        <v>17.125630999999998</v>
       </c>
       <c r="AL17" s="1">
-        <v>1384.480000</v>
+        <v>1384.48</v>
       </c>
       <c r="AM17" s="1">
-        <v>-209.213000</v>
+        <v>-209.21299999999999</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>61663.427053</v>
+        <v>61663.427052999999</v>
       </c>
       <c r="AP17" s="1">
-        <v>17.128730</v>
+        <v>17.128730000000001</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1406.680000</v>
+        <v>1406.68</v>
       </c>
       <c r="AR17" s="1">
-        <v>-253.053000</v>
+        <v>-253.053</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>61674.394094</v>
+        <v>61674.394094000003</v>
       </c>
       <c r="AU17" s="1">
-        <v>17.131776</v>
+        <v>17.131775999999999</v>
       </c>
       <c r="AV17" s="1">
-        <v>1431.870000</v>
+        <v>1431.87</v>
       </c>
       <c r="AW17" s="1">
-        <v>-312.479000</v>
+        <v>-312.47899999999998</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>61685.602193</v>
+        <v>61685.602192999999</v>
       </c>
       <c r="AZ17" s="1">
-        <v>17.134889</v>
+        <v>17.134889000000001</v>
       </c>
       <c r="BA17" s="1">
-        <v>1451.580000</v>
+        <v>1451.58</v>
       </c>
       <c r="BB17" s="1">
-        <v>-364.376000</v>
+        <v>-364.37599999999998</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>61697.110368</v>
+        <v>61697.110368000001</v>
       </c>
       <c r="BE17" s="1">
-        <v>17.138086</v>
+        <v>17.138086000000001</v>
       </c>
       <c r="BF17" s="1">
-        <v>1538.860000</v>
+        <v>1538.86</v>
       </c>
       <c r="BG17" s="1">
-        <v>-610.665000</v>
+        <v>-610.66499999999996</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
         <v>61708.693969</v>
       </c>
       <c r="BJ17" s="1">
-        <v>17.141304</v>
+        <v>17.141304000000002</v>
       </c>
       <c r="BK17" s="1">
-        <v>1695.870000</v>
+        <v>1695.87</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1049.740000</v>
+        <v>-1049.74</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>61719.965026</v>
+        <v>61719.965025999998</v>
       </c>
       <c r="BO17" s="1">
-        <v>17.144435</v>
+        <v>17.144435000000001</v>
       </c>
       <c r="BP17" s="1">
-        <v>1994.780000</v>
+        <v>1994.78</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1806.580000</v>
+        <v>-1806.58</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>61731.273323</v>
+        <v>61731.273323000001</v>
       </c>
       <c r="BT17" s="1">
-        <v>17.147576</v>
+        <v>17.147576000000001</v>
       </c>
       <c r="BU17" s="1">
-        <v>2385.890000</v>
+        <v>2385.89</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2672.240000</v>
+        <v>-2672.24</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>61742.579124</v>
+        <v>61742.579124000004</v>
       </c>
       <c r="BY17" s="1">
-        <v>17.150716</v>
+        <v>17.150715999999999</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2871.070000</v>
+        <v>2871.07</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3617.940000</v>
+        <v>-3617.94</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>61755.477588</v>
+        <v>61755.477588000002</v>
       </c>
       <c r="CD17" s="1">
-        <v>17.154299</v>
+        <v>17.154299000000002</v>
       </c>
       <c r="CE17" s="1">
-        <v>4275.860000</v>
+        <v>4275.8599999999997</v>
       </c>
       <c r="CF17" s="1">
-        <v>-5870.490000</v>
+        <v>-5870.49</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>61579.769356</v>
+        <v>61579.769355999997</v>
       </c>
       <c r="B18" s="1">
-        <v>17.105491</v>
+        <v>17.105491000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>1248.570000</v>
+        <v>1248.57</v>
       </c>
       <c r="D18" s="1">
-        <v>-304.355000</v>
+        <v>-304.35500000000002</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>61590.177374</v>
+        <v>61590.177373999999</v>
       </c>
       <c r="G18" s="1">
         <v>17.108383</v>
       </c>
       <c r="H18" s="1">
-        <v>1272.630000</v>
+        <v>1272.6300000000001</v>
       </c>
       <c r="I18" s="1">
-        <v>-262.338000</v>
+        <v>-262.33800000000002</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>61600.367186</v>
+        <v>61600.367186000003</v>
       </c>
       <c r="L18" s="1">
-        <v>17.111213</v>
+        <v>17.111212999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>1307.420000</v>
+        <v>1307.42</v>
       </c>
       <c r="N18" s="1">
-        <v>-201.463000</v>
+        <v>-201.46299999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>61610.606595</v>
+        <v>61610.606594999997</v>
       </c>
       <c r="Q18" s="1">
-        <v>17.114057</v>
+        <v>17.114056999999999</v>
       </c>
       <c r="R18" s="1">
-        <v>1319.330000</v>
+        <v>1319.33</v>
       </c>
       <c r="S18" s="1">
-        <v>-183.949000</v>
+        <v>-183.94900000000001</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>61621.086566</v>
+        <v>61621.086565999998</v>
       </c>
       <c r="V18" s="1">
         <v>17.116968</v>
       </c>
       <c r="W18" s="1">
-        <v>1332.470000</v>
+        <v>1332.47</v>
       </c>
       <c r="X18" s="1">
-        <v>-170.818000</v>
+        <v>-170.81800000000001</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>61631.597287</v>
+        <v>61631.597286999997</v>
       </c>
       <c r="AA18" s="1">
         <v>17.119888</v>
       </c>
       <c r="AB18" s="1">
-        <v>1350.160000</v>
+        <v>1350.16</v>
       </c>
       <c r="AC18" s="1">
-        <v>-169.230000</v>
+        <v>-169.23</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>61642.390729</v>
+        <v>61642.390728999999</v>
       </c>
       <c r="AF18" s="1">
-        <v>17.122886</v>
+        <v>17.122886000000001</v>
       </c>
       <c r="AG18" s="1">
-        <v>1363.260000</v>
+        <v>1363.26</v>
       </c>
       <c r="AH18" s="1">
-        <v>-179.215000</v>
+        <v>-179.215</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>61652.945627</v>
+        <v>61652.945627000001</v>
       </c>
       <c r="AK18" s="1">
-        <v>17.125818</v>
+        <v>17.125817999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>1384.500000</v>
+        <v>1384.5</v>
       </c>
       <c r="AM18" s="1">
-        <v>-209.212000</v>
+        <v>-209.21199999999999</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>61663.875934</v>
+        <v>61663.875934000003</v>
       </c>
       <c r="AP18" s="1">
         <v>17.128854</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1406.690000</v>
+        <v>1406.69</v>
       </c>
       <c r="AR18" s="1">
-        <v>-252.988000</v>
+        <v>-252.988</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>61674.757662</v>
+        <v>61674.757662000004</v>
       </c>
       <c r="AU18" s="1">
-        <v>17.131877</v>
+        <v>17.131876999999999</v>
       </c>
       <c r="AV18" s="1">
-        <v>1431.850000</v>
+        <v>1431.85</v>
       </c>
       <c r="AW18" s="1">
-        <v>-312.506000</v>
+        <v>-312.50599999999997</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>61685.960831</v>
+        <v>61685.960830999997</v>
       </c>
       <c r="AZ18" s="1">
-        <v>17.134989</v>
+        <v>17.134989000000001</v>
       </c>
       <c r="BA18" s="1">
-        <v>1451.570000</v>
+        <v>1451.57</v>
       </c>
       <c r="BB18" s="1">
-        <v>-364.333000</v>
+        <v>-364.33300000000003</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>61697.704594</v>
+        <v>61697.704594000003</v>
       </c>
       <c r="BE18" s="1">
         <v>17.138251</v>
       </c>
       <c r="BF18" s="1">
-        <v>1538.530000</v>
+        <v>1538.53</v>
       </c>
       <c r="BG18" s="1">
-        <v>-610.511000</v>
+        <v>-610.51099999999997</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>61709.130945</v>
+        <v>61709.130944999997</v>
       </c>
       <c r="BJ18" s="1">
-        <v>17.141425</v>
+        <v>17.141425000000002</v>
       </c>
       <c r="BK18" s="1">
-        <v>1695.810000</v>
+        <v>1695.81</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1049.780000</v>
+        <v>-1049.78</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>61720.393100</v>
+        <v>61720.393100000001</v>
       </c>
       <c r="BO18" s="1">
-        <v>17.144554</v>
+        <v>17.144553999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1994.820000</v>
+        <v>1994.82</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1806.440000</v>
+        <v>-1806.44</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>61731.692473</v>
+        <v>61731.692473000003</v>
       </c>
       <c r="BT18" s="1">
-        <v>17.147692</v>
+        <v>17.147691999999999</v>
       </c>
       <c r="BU18" s="1">
-        <v>2386.050000</v>
+        <v>2386.0500000000002</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2672.580000</v>
+        <v>-2672.58</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>61742.999733</v>
+        <v>61742.999732999997</v>
       </c>
       <c r="BY18" s="1">
-        <v>17.150833</v>
+        <v>17.150832999999999</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2872.080000</v>
+        <v>2872.08</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3618.230000</v>
+        <v>-3618.23</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>61755.998386</v>
+        <v>61755.998385999999</v>
       </c>
       <c r="CD18" s="1">
-        <v>17.154444</v>
+        <v>17.154444000000002</v>
       </c>
       <c r="CE18" s="1">
-        <v>4284.710000</v>
+        <v>4284.71</v>
       </c>
       <c r="CF18" s="1">
-        <v>-5880.110000</v>
+        <v>-5880.11</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>61580.451324</v>
+        <v>61580.451324000001</v>
       </c>
       <c r="B19" s="1">
-        <v>17.105681</v>
+        <v>17.105681000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>1248.490000</v>
+        <v>1248.49</v>
       </c>
       <c r="D19" s="1">
-        <v>-303.807000</v>
+        <v>-303.80700000000002</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>61590.517133</v>
+        <v>61590.517133000001</v>
       </c>
       <c r="G19" s="1">
-        <v>17.108477</v>
+        <v>17.108477000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>1272.990000</v>
+        <v>1272.99</v>
       </c>
       <c r="I19" s="1">
-        <v>-263.194000</v>
+        <v>-263.19400000000002</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>61600.710913</v>
+        <v>61600.710913000003</v>
       </c>
       <c r="L19" s="1">
-        <v>17.111309</v>
+        <v>17.111308999999999</v>
       </c>
       <c r="M19" s="1">
-        <v>1307.330000</v>
+        <v>1307.33</v>
       </c>
       <c r="N19" s="1">
-        <v>-201.301000</v>
+        <v>-201.30099999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>61610.953826</v>
+        <v>61610.953825999997</v>
       </c>
       <c r="Q19" s="1">
-        <v>17.114154</v>
+        <v>17.114153999999999</v>
       </c>
       <c r="R19" s="1">
-        <v>1319.260000</v>
+        <v>1319.26</v>
       </c>
       <c r="S19" s="1">
-        <v>-183.988000</v>
+        <v>-183.988</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>61621.428805</v>
+        <v>61621.428805000003</v>
       </c>
       <c r="V19" s="1">
-        <v>17.117064</v>
+        <v>17.117063999999999</v>
       </c>
       <c r="W19" s="1">
-        <v>1332.650000</v>
+        <v>1332.65</v>
       </c>
       <c r="X19" s="1">
-        <v>-170.934000</v>
+        <v>-170.934</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>61632.257958</v>
+        <v>61632.257958000002</v>
       </c>
       <c r="AA19" s="1">
         <v>17.120072</v>
       </c>
       <c r="AB19" s="1">
-        <v>1350.070000</v>
+        <v>1350.07</v>
       </c>
       <c r="AC19" s="1">
-        <v>-169.186000</v>
+        <v>-169.18600000000001</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>61642.758265</v>
+        <v>61642.758264999997</v>
       </c>
       <c r="AF19" s="1">
-        <v>17.122988</v>
+        <v>17.122987999999999</v>
       </c>
       <c r="AG19" s="1">
-        <v>1363.230000</v>
+        <v>1363.23</v>
       </c>
       <c r="AH19" s="1">
-        <v>-179.219000</v>
+        <v>-179.21899999999999</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>61653.318586</v>
+        <v>61653.318586000001</v>
       </c>
       <c r="AK19" s="1">
-        <v>17.125922</v>
+        <v>17.125921999999999</v>
       </c>
       <c r="AL19" s="1">
-        <v>1384.480000</v>
+        <v>1384.48</v>
       </c>
       <c r="AM19" s="1">
-        <v>-209.234000</v>
+        <v>-209.23400000000001</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
         <v>61664.236524</v>
       </c>
       <c r="AP19" s="1">
-        <v>17.128955</v>
+        <v>17.128955000000001</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1406.670000</v>
+        <v>1406.67</v>
       </c>
       <c r="AR19" s="1">
-        <v>-252.993000</v>
+        <v>-252.99299999999999</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>61675.122222</v>
+        <v>61675.122221999998</v>
       </c>
       <c r="AU19" s="1">
         <v>17.131978</v>
       </c>
       <c r="AV19" s="1">
-        <v>1431.850000</v>
+        <v>1431.85</v>
       </c>
       <c r="AW19" s="1">
-        <v>-312.502000</v>
+        <v>-312.50200000000001</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>61686.319904</v>
+        <v>61686.319904000004</v>
       </c>
       <c r="AZ19" s="1">
-        <v>17.135089</v>
+        <v>17.135089000000001</v>
       </c>
       <c r="BA19" s="1">
-        <v>1451.560000</v>
+        <v>1451.56</v>
       </c>
       <c r="BB19" s="1">
-        <v>-364.282000</v>
+        <v>-364.28199999999998</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>61698.139568</v>
+        <v>61698.139567999999</v>
       </c>
       <c r="BE19" s="1">
         <v>17.138372</v>
       </c>
       <c r="BF19" s="1">
-        <v>1538.560000</v>
+        <v>1538.56</v>
       </c>
       <c r="BG19" s="1">
-        <v>-610.511000</v>
+        <v>-610.51099999999997</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
         <v>61709.445904</v>
@@ -5030,120 +5446,120 @@
         <v>17.141513</v>
       </c>
       <c r="BK19" s="1">
-        <v>1695.930000</v>
+        <v>1695.93</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1049.710000</v>
+        <v>-1049.71</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>61720.784417</v>
+        <v>61720.784417000003</v>
       </c>
       <c r="BO19" s="1">
         <v>17.144662</v>
       </c>
       <c r="BP19" s="1">
-        <v>1994.740000</v>
+        <v>1994.74</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1806.490000</v>
+        <v>-1806.49</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>61732.118003</v>
+        <v>61732.118003000003</v>
       </c>
       <c r="BT19" s="1">
-        <v>17.147811</v>
+        <v>17.147811000000001</v>
       </c>
       <c r="BU19" s="1">
-        <v>2386.030000</v>
+        <v>2386.0300000000002</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2672.320000</v>
+        <v>-2672.32</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
         <v>61743.423316</v>
       </c>
       <c r="BY19" s="1">
-        <v>17.150951</v>
+        <v>17.150950999999999</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2872.120000</v>
+        <v>2872.12</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3618.280000</v>
+        <v>-3618.28</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>61756.515746</v>
+        <v>61756.515745999997</v>
       </c>
       <c r="CD19" s="1">
         <v>17.154588</v>
       </c>
       <c r="CE19" s="1">
-        <v>4293.340000</v>
+        <v>4293.34</v>
       </c>
       <c r="CF19" s="1">
-        <v>-5869.660000</v>
+        <v>-5869.66</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>61580.800042</v>
+        <v>61580.800042000003</v>
       </c>
       <c r="B20" s="1">
-        <v>17.105778</v>
+        <v>17.105778000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>1249.030000</v>
+        <v>1249.03</v>
       </c>
       <c r="D20" s="1">
-        <v>-303.779000</v>
+        <v>-303.779</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>61590.863869</v>
+        <v>61590.863869000001</v>
       </c>
       <c r="G20" s="1">
         <v>17.108573</v>
       </c>
       <c r="H20" s="1">
-        <v>1271.810000</v>
+        <v>1271.81</v>
       </c>
       <c r="I20" s="1">
-        <v>-262.801000</v>
+        <v>-262.80099999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>61601.060128</v>
+        <v>61601.060127999997</v>
       </c>
       <c r="L20" s="1">
-        <v>17.111406</v>
+        <v>17.111405999999999</v>
       </c>
       <c r="M20" s="1">
-        <v>1307.470000</v>
+        <v>1307.47</v>
       </c>
       <c r="N20" s="1">
-        <v>-201.447000</v>
+        <v>-201.447</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
         <v>61611.615457</v>
@@ -5152,28 +5568,28 @@
         <v>17.114338</v>
       </c>
       <c r="R20" s="1">
-        <v>1319.230000</v>
+        <v>1319.23</v>
       </c>
       <c r="S20" s="1">
-        <v>-183.948000</v>
+        <v>-183.94800000000001</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>61622.086003</v>
+        <v>61622.086002999997</v>
       </c>
       <c r="V20" s="1">
-        <v>17.117246</v>
+        <v>17.117246000000002</v>
       </c>
       <c r="W20" s="1">
-        <v>1332.500000</v>
+        <v>1332.5</v>
       </c>
       <c r="X20" s="1">
-        <v>-170.848000</v>
+        <v>-170.84800000000001</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
         <v>61632.644837</v>
@@ -5182,195 +5598,195 @@
         <v>17.120179</v>
       </c>
       <c r="AB20" s="1">
-        <v>1350.140000</v>
+        <v>1350.14</v>
       </c>
       <c r="AC20" s="1">
-        <v>-169.206000</v>
+        <v>-169.20599999999999</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>61643.102526</v>
+        <v>61643.102526000002</v>
       </c>
       <c r="AF20" s="1">
-        <v>17.123084</v>
+        <v>17.123083999999999</v>
       </c>
       <c r="AG20" s="1">
-        <v>1363.520000</v>
+        <v>1363.52</v>
       </c>
       <c r="AH20" s="1">
-        <v>-179.369000</v>
+        <v>-179.369</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>61653.670106</v>
+        <v>61653.670105999998</v>
       </c>
       <c r="AK20" s="1">
-        <v>17.126019</v>
+        <v>17.126018999999999</v>
       </c>
       <c r="AL20" s="1">
-        <v>1384.480000</v>
+        <v>1384.48</v>
       </c>
       <c r="AM20" s="1">
-        <v>-209.222000</v>
+        <v>-209.22200000000001</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>61664.596620</v>
+        <v>61664.596619999997</v>
       </c>
       <c r="AP20" s="1">
-        <v>17.129055</v>
+        <v>17.129055000000001</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1406.660000</v>
+        <v>1406.66</v>
       </c>
       <c r="AR20" s="1">
-        <v>-253.019000</v>
+        <v>-253.01900000000001</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>61675.545806</v>
+        <v>61675.545806000002</v>
       </c>
       <c r="AU20" s="1">
-        <v>17.132096</v>
+        <v>17.132096000000001</v>
       </c>
       <c r="AV20" s="1">
-        <v>1431.830000</v>
+        <v>1431.83</v>
       </c>
       <c r="AW20" s="1">
-        <v>-312.483000</v>
+        <v>-312.483</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>61686.734062</v>
+        <v>61686.734062000003</v>
       </c>
       <c r="AZ20" s="1">
-        <v>17.135204</v>
+        <v>17.135204000000002</v>
       </c>
       <c r="BA20" s="1">
-        <v>1451.530000</v>
+        <v>1451.53</v>
       </c>
       <c r="BB20" s="1">
-        <v>-364.402000</v>
+        <v>-364.40199999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>61698.472880</v>
+        <v>61698.472880000001</v>
       </c>
       <c r="BE20" s="1">
         <v>17.138465</v>
       </c>
       <c r="BF20" s="1">
-        <v>1538.550000</v>
+        <v>1538.55</v>
       </c>
       <c r="BG20" s="1">
-        <v>-610.529000</v>
+        <v>-610.529</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>61709.820884</v>
+        <v>61709.820884000001</v>
       </c>
       <c r="BJ20" s="1">
         <v>17.141617</v>
       </c>
       <c r="BK20" s="1">
-        <v>1695.890000</v>
+        <v>1695.89</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1049.780000</v>
+        <v>-1049.78</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>61721.180948</v>
+        <v>61721.180948000001</v>
       </c>
       <c r="BO20" s="1">
         <v>17.144772</v>
       </c>
       <c r="BP20" s="1">
-        <v>1994.730000</v>
+        <v>1994.73</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1806.460000</v>
+        <v>-1806.46</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>61732.531698</v>
+        <v>61732.531697999999</v>
       </c>
       <c r="BT20" s="1">
-        <v>17.147925</v>
+        <v>17.147925000000001</v>
       </c>
       <c r="BU20" s="1">
-        <v>2386.130000</v>
+        <v>2386.13</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2672.630000</v>
+        <v>-2672.63</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>61743.872692</v>
+        <v>61743.872691999997</v>
       </c>
       <c r="BY20" s="1">
         <v>17.151076</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2871.150000</v>
+        <v>2871.15</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3617.520000</v>
+        <v>-3617.52</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>61757.033042</v>
+        <v>61757.033042000003</v>
       </c>
       <c r="CD20" s="1">
-        <v>17.154731</v>
+        <v>17.154731000000002</v>
       </c>
       <c r="CE20" s="1">
-        <v>4293.430000</v>
+        <v>4293.43</v>
       </c>
       <c r="CF20" s="1">
-        <v>-5878.680000</v>
+        <v>-5878.68</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>61581.138810</v>
+        <v>61581.138809999997</v>
       </c>
       <c r="B21" s="1">
-        <v>17.105872</v>
+        <v>17.105872000000002</v>
       </c>
       <c r="C21" s="1">
-        <v>1248.240000</v>
+        <v>1248.24</v>
       </c>
       <c r="D21" s="1">
-        <v>-304.171000</v>
+        <v>-304.17099999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <v>61591.511154</v>
@@ -5379,163 +5795,163 @@
         <v>17.108753</v>
       </c>
       <c r="H21" s="1">
-        <v>1273.690000</v>
+        <v>1273.69</v>
       </c>
       <c r="I21" s="1">
-        <v>-262.239000</v>
+        <v>-262.23899999999998</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
         <v>61601.721759</v>
       </c>
       <c r="L21" s="1">
-        <v>17.111589</v>
+        <v>17.111588999999999</v>
       </c>
       <c r="M21" s="1">
-        <v>1307.400000</v>
+        <v>1307.4000000000001</v>
       </c>
       <c r="N21" s="1">
-        <v>-201.410000</v>
+        <v>-201.41</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>61611.998896</v>
+        <v>61611.998895999997</v>
       </c>
       <c r="Q21" s="1">
-        <v>17.114444</v>
+        <v>17.114443999999999</v>
       </c>
       <c r="R21" s="1">
-        <v>1319.240000</v>
+        <v>1319.24</v>
       </c>
       <c r="S21" s="1">
-        <v>-183.911000</v>
+        <v>-183.911</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>61622.462467</v>
+        <v>61622.462466999998</v>
       </c>
       <c r="V21" s="1">
-        <v>17.117351</v>
+        <v>17.117350999999999</v>
       </c>
       <c r="W21" s="1">
-        <v>1332.460000</v>
+        <v>1332.46</v>
       </c>
       <c r="X21" s="1">
-        <v>-170.762000</v>
+        <v>-170.762</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>61632.991541</v>
+        <v>61632.991541000003</v>
       </c>
       <c r="AA21" s="1">
-        <v>17.120275</v>
+        <v>17.120274999999999</v>
       </c>
       <c r="AB21" s="1">
-        <v>1350.100000</v>
+        <v>1350.1</v>
       </c>
       <c r="AC21" s="1">
-        <v>-169.288000</v>
+        <v>-169.28800000000001</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>61643.445725</v>
+        <v>61643.445724999998</v>
       </c>
       <c r="AF21" s="1">
         <v>17.123179</v>
       </c>
       <c r="AG21" s="1">
-        <v>1363.240000</v>
+        <v>1363.24</v>
       </c>
       <c r="AH21" s="1">
-        <v>-178.903000</v>
+        <v>-178.90299999999999</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>61654.017981</v>
+        <v>61654.017980999997</v>
       </c>
       <c r="AK21" s="1">
         <v>17.126116</v>
       </c>
       <c r="AL21" s="1">
-        <v>1384.490000</v>
+        <v>1384.49</v>
       </c>
       <c r="AM21" s="1">
-        <v>-209.222000</v>
+        <v>-209.22200000000001</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>61665.024703</v>
+        <v>61665.024703000003</v>
       </c>
       <c r="AP21" s="1">
-        <v>17.129174</v>
+        <v>17.129173999999999</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1406.660000</v>
+        <v>1406.66</v>
       </c>
       <c r="AR21" s="1">
-        <v>-252.965000</v>
+        <v>-252.965</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
         <v>61675.850348</v>
       </c>
       <c r="AU21" s="1">
-        <v>17.132181</v>
+        <v>17.132180999999999</v>
       </c>
       <c r="AV21" s="1">
-        <v>1431.770000</v>
+        <v>1431.77</v>
       </c>
       <c r="AW21" s="1">
-        <v>-312.496000</v>
+        <v>-312.49599999999998</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>61687.039104</v>
+        <v>61687.039104000003</v>
       </c>
       <c r="AZ21" s="1">
         <v>17.135289</v>
       </c>
       <c r="BA21" s="1">
-        <v>1451.560000</v>
+        <v>1451.56</v>
       </c>
       <c r="BB21" s="1">
-        <v>-364.363000</v>
+        <v>-364.363</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>61698.832974</v>
+        <v>61698.832973999997</v>
       </c>
       <c r="BE21" s="1">
         <v>17.138565</v>
       </c>
       <c r="BF21" s="1">
-        <v>1538.560000</v>
+        <v>1538.56</v>
       </c>
       <c r="BG21" s="1">
-        <v>-610.482000</v>
+        <v>-610.48199999999997</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
         <v>61710.206736</v>
@@ -5544,105 +5960,105 @@
         <v>17.141724</v>
       </c>
       <c r="BK21" s="1">
-        <v>1695.880000</v>
+        <v>1695.88</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1049.780000</v>
+        <v>-1049.78</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>61721.601345</v>
+        <v>61721.601345000003</v>
       </c>
       <c r="BO21" s="1">
-        <v>17.144889</v>
+        <v>17.144888999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1994.810000</v>
+        <v>1994.81</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1806.510000</v>
+        <v>-1806.51</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>61732.961201</v>
+        <v>61732.961200999998</v>
       </c>
       <c r="BT21" s="1">
         <v>17.148045</v>
       </c>
       <c r="BU21" s="1">
-        <v>2386.230000</v>
+        <v>2386.23</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2672.190000</v>
+        <v>-2672.19</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>61744.302258</v>
+        <v>61744.302258000003</v>
       </c>
       <c r="BY21" s="1">
-        <v>17.151195</v>
+        <v>17.151195000000001</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2871.140000</v>
+        <v>2871.14</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3618.190000</v>
+        <v>-3618.19</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>61757.585586</v>
+        <v>61757.585586000001</v>
       </c>
       <c r="CD21" s="1">
         <v>17.154885</v>
       </c>
       <c r="CE21" s="1">
-        <v>4283.660000</v>
+        <v>4283.66</v>
       </c>
       <c r="CF21" s="1">
-        <v>-5879.580000</v>
+        <v>-5879.58</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>61581.798953</v>
+        <v>61581.798952999998</v>
       </c>
       <c r="B22" s="1">
-        <v>17.106055</v>
+        <v>17.106055000000001</v>
       </c>
       <c r="C22" s="1">
-        <v>1248.530000</v>
+        <v>1248.53</v>
       </c>
       <c r="D22" s="1">
-        <v>-303.885000</v>
+        <v>-303.88499999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>61591.895049</v>
+        <v>61591.895048999999</v>
       </c>
       <c r="G22" s="1">
-        <v>17.108860</v>
+        <v>17.10886</v>
       </c>
       <c r="H22" s="1">
-        <v>1273.220000</v>
+        <v>1273.22</v>
       </c>
       <c r="I22" s="1">
-        <v>-263.299000</v>
+        <v>-263.29899999999998</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
         <v>61602.097726</v>
@@ -5651,465 +6067,465 @@
         <v>17.111694</v>
       </c>
       <c r="M22" s="1">
-        <v>1307.180000</v>
+        <v>1307.18</v>
       </c>
       <c r="N22" s="1">
-        <v>-201.507000</v>
+        <v>-201.50700000000001</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
         <v>61612.348048</v>
       </c>
       <c r="Q22" s="1">
-        <v>17.114541</v>
+        <v>17.114540999999999</v>
       </c>
       <c r="R22" s="1">
-        <v>1319.420000</v>
+        <v>1319.42</v>
       </c>
       <c r="S22" s="1">
-        <v>-183.857000</v>
+        <v>-183.857</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>61622.809206</v>
+        <v>61622.809205999998</v>
       </c>
       <c r="V22" s="1">
-        <v>17.117447</v>
+        <v>17.117446999999999</v>
       </c>
       <c r="W22" s="1">
-        <v>1332.720000</v>
+        <v>1332.72</v>
       </c>
       <c r="X22" s="1">
-        <v>-170.979000</v>
+        <v>-170.97900000000001</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>61633.337253</v>
+        <v>61633.337252999998</v>
       </c>
       <c r="AA22" s="1">
-        <v>17.120371</v>
+        <v>17.120370999999999</v>
       </c>
       <c r="AB22" s="1">
-        <v>1350.120000</v>
+        <v>1350.12</v>
       </c>
       <c r="AC22" s="1">
-        <v>-169.285000</v>
+        <v>-169.285</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>61643.879719</v>
+        <v>61643.879718999997</v>
       </c>
       <c r="AF22" s="1">
-        <v>17.123300</v>
+        <v>17.1233</v>
       </c>
       <c r="AG22" s="1">
-        <v>1363.160000</v>
+        <v>1363.16</v>
       </c>
       <c r="AH22" s="1">
-        <v>-179.106000</v>
+        <v>-179.10599999999999</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>61654.452939</v>
+        <v>61654.452939000003</v>
       </c>
       <c r="AK22" s="1">
         <v>17.126237</v>
       </c>
       <c r="AL22" s="1">
-        <v>1384.490000</v>
+        <v>1384.49</v>
       </c>
       <c r="AM22" s="1">
-        <v>-209.235000</v>
+        <v>-209.23500000000001</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>61665.315324</v>
+        <v>61665.315324000003</v>
       </c>
       <c r="AP22" s="1">
         <v>17.129254</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1406.660000</v>
+        <v>1406.66</v>
       </c>
       <c r="AR22" s="1">
-        <v>-253.006000</v>
+        <v>-253.006</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>61676.214910</v>
+        <v>61676.214910000002</v>
       </c>
       <c r="AU22" s="1">
         <v>17.132282</v>
       </c>
       <c r="AV22" s="1">
-        <v>1431.750000</v>
+        <v>1431.75</v>
       </c>
       <c r="AW22" s="1">
-        <v>-312.520000</v>
+        <v>-312.52</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>61687.399229</v>
+        <v>61687.399229000002</v>
       </c>
       <c r="AZ22" s="1">
         <v>17.135389</v>
       </c>
       <c r="BA22" s="1">
-        <v>1451.570000</v>
+        <v>1451.57</v>
       </c>
       <c r="BB22" s="1">
-        <v>-364.340000</v>
+        <v>-364.34</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
         <v>61699.191585</v>
       </c>
       <c r="BE22" s="1">
-        <v>17.138664</v>
+        <v>17.138663999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1538.560000</v>
+        <v>1538.56</v>
       </c>
       <c r="BG22" s="1">
-        <v>-610.453000</v>
+        <v>-610.45299999999997</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>61710.971567</v>
+        <v>61710.971567000001</v>
       </c>
       <c r="BJ22" s="1">
-        <v>17.141937</v>
+        <v>17.141936999999999</v>
       </c>
       <c r="BK22" s="1">
-        <v>1695.850000</v>
+        <v>1695.85</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1049.680000</v>
+        <v>-1049.68</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>61722.418767</v>
+        <v>61722.418767000003</v>
       </c>
       <c r="BO22" s="1">
-        <v>17.145116</v>
+        <v>17.145116000000002</v>
       </c>
       <c r="BP22" s="1">
-        <v>1994.600000</v>
+        <v>1994.6</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1806.460000</v>
+        <v>-1806.46</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>61733.388293</v>
+        <v>61733.388293000004</v>
       </c>
       <c r="BT22" s="1">
         <v>17.148163</v>
       </c>
       <c r="BU22" s="1">
-        <v>2386.070000</v>
+        <v>2386.0700000000002</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2672.200000</v>
+        <v>-2672.2</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>61744.724321</v>
+        <v>61744.724321000002</v>
       </c>
       <c r="BY22" s="1">
-        <v>17.151312</v>
+        <v>17.151312000000001</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2871.430000</v>
+        <v>2871.43</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3617.320000</v>
+        <v>-3617.32</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>61758.422832</v>
+        <v>61758.422831999997</v>
       </c>
       <c r="CD22" s="1">
-        <v>17.155117</v>
+        <v>17.155117000000001</v>
       </c>
       <c r="CE22" s="1">
-        <v>4292.070000</v>
+        <v>4292.07</v>
       </c>
       <c r="CF22" s="1">
-        <v>-5869.140000</v>
+        <v>-5869.14</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>61582.162553</v>
+        <v>61582.162553000002</v>
       </c>
       <c r="B23" s="1">
-        <v>17.106156</v>
+        <v>17.106155999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>1248.590000</v>
+        <v>1248.5899999999999</v>
       </c>
       <c r="D23" s="1">
-        <v>-303.985000</v>
+        <v>-303.98500000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>61592.239740</v>
+        <v>61592.239739999997</v>
       </c>
       <c r="G23" s="1">
-        <v>17.108955</v>
+        <v>17.108955000000002</v>
       </c>
       <c r="H23" s="1">
-        <v>1273.580000</v>
+        <v>1273.58</v>
       </c>
       <c r="I23" s="1">
-        <v>-262.654000</v>
+        <v>-262.654</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>61602.443471</v>
+        <v>61602.443470999999</v>
       </c>
       <c r="L23" s="1">
-        <v>17.111790</v>
+        <v>17.111789999999999</v>
       </c>
       <c r="M23" s="1">
-        <v>1307.240000</v>
+        <v>1307.24</v>
       </c>
       <c r="N23" s="1">
-        <v>-201.465000</v>
+        <v>-201.465</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>61612.694784</v>
+        <v>61612.694783999999</v>
       </c>
       <c r="Q23" s="1">
-        <v>17.114637</v>
+        <v>17.114636999999998</v>
       </c>
       <c r="R23" s="1">
-        <v>1319.200000</v>
+        <v>1319.2</v>
       </c>
       <c r="S23" s="1">
-        <v>-183.927000</v>
+        <v>-183.92699999999999</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>61623.235730</v>
+        <v>61623.23573</v>
       </c>
       <c r="V23" s="1">
-        <v>17.117565</v>
+        <v>17.117564999999999</v>
       </c>
       <c r="W23" s="1">
-        <v>1332.600000</v>
+        <v>1332.6</v>
       </c>
       <c r="X23" s="1">
-        <v>-170.994000</v>
+        <v>-170.994</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>61633.764836</v>
+        <v>61633.764836000002</v>
       </c>
       <c r="AA23" s="1">
-        <v>17.120490</v>
+        <v>17.12049</v>
       </c>
       <c r="AB23" s="1">
-        <v>1350.150000</v>
+        <v>1350.15</v>
       </c>
       <c r="AC23" s="1">
-        <v>-169.128000</v>
+        <v>-169.12799999999999</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>61644.157515</v>
+        <v>61644.157514999999</v>
       </c>
       <c r="AF23" s="1">
-        <v>17.123377</v>
+        <v>17.123377000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>1363.270000</v>
+        <v>1363.27</v>
       </c>
       <c r="AH23" s="1">
-        <v>-179.225000</v>
+        <v>-179.22499999999999</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>61654.723784</v>
+        <v>61654.723784000002</v>
       </c>
       <c r="AK23" s="1">
-        <v>17.126312</v>
+        <v>17.126311999999999</v>
       </c>
       <c r="AL23" s="1">
-        <v>1384.450000</v>
+        <v>1384.45</v>
       </c>
       <c r="AM23" s="1">
-        <v>-209.233000</v>
+        <v>-209.233</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>61665.676442</v>
+        <v>61665.676442000004</v>
       </c>
       <c r="AP23" s="1">
         <v>17.129355</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1406.650000</v>
+        <v>1406.65</v>
       </c>
       <c r="AR23" s="1">
-        <v>-252.998000</v>
+        <v>-252.99799999999999</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>61676.582443</v>
+        <v>61676.582442999999</v>
       </c>
       <c r="AU23" s="1">
-        <v>17.132384</v>
+        <v>17.132383999999998</v>
       </c>
       <c r="AV23" s="1">
-        <v>1431.740000</v>
+        <v>1431.74</v>
       </c>
       <c r="AW23" s="1">
-        <v>-312.728000</v>
+        <v>-312.72800000000001</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>61687.758301</v>
+        <v>61687.758301000002</v>
       </c>
       <c r="AZ23" s="1">
-        <v>17.135488</v>
+        <v>17.135487999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>1451.490000</v>
+        <v>1451.49</v>
       </c>
       <c r="BB23" s="1">
-        <v>-364.340000</v>
+        <v>-364.34</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>61699.913292</v>
+        <v>61699.913291999997</v>
       </c>
       <c r="BE23" s="1">
-        <v>17.138865</v>
+        <v>17.138864999999999</v>
       </c>
       <c r="BF23" s="1">
-        <v>1538.570000</v>
+        <v>1538.57</v>
       </c>
       <c r="BG23" s="1">
-        <v>-610.501000</v>
+        <v>-610.50099999999998</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
         <v>61711.347534</v>
       </c>
       <c r="BJ23" s="1">
-        <v>17.142041</v>
+        <v>17.142040999999999</v>
       </c>
       <c r="BK23" s="1">
-        <v>1695.830000</v>
+        <v>1695.83</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1049.730000</v>
+        <v>-1049.73</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>61722.844798</v>
+        <v>61722.844797999998</v>
       </c>
       <c r="BO23" s="1">
         <v>17.145235</v>
       </c>
       <c r="BP23" s="1">
-        <v>1994.670000</v>
+        <v>1994.67</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1806.420000</v>
+        <v>-1806.42</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>61733.800964</v>
+        <v>61733.800964000002</v>
       </c>
       <c r="BT23" s="1">
-        <v>17.148278</v>
+        <v>17.148278000000001</v>
       </c>
       <c r="BU23" s="1">
-        <v>2386.280000</v>
+        <v>2386.2800000000002</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2672.060000</v>
+        <v>-2672.06</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>61745.457408</v>
+        <v>61745.457408000002</v>
       </c>
       <c r="BY23" s="1">
-        <v>17.151516</v>
+        <v>17.151516000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2871.960000</v>
+        <v>2871.96</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3619.310000</v>
+        <v>-3619.31</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
         <v>61758.667855</v>
@@ -6118,273 +6534,273 @@
         <v>17.155186</v>
       </c>
       <c r="CE23" s="1">
-        <v>4278.930000</v>
+        <v>4278.93</v>
       </c>
       <c r="CF23" s="1">
-        <v>-5861.580000</v>
+        <v>-5861.58</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>61582.508266</v>
+        <v>61582.508265999997</v>
       </c>
       <c r="B24" s="1">
-        <v>17.106252</v>
+        <v>17.106252000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>1248.690000</v>
+        <v>1248.69</v>
       </c>
       <c r="D24" s="1">
-        <v>-303.883000</v>
+        <v>-303.88299999999998</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
         <v>61592.586444</v>
       </c>
       <c r="G24" s="1">
-        <v>17.109052</v>
+        <v>17.109051999999998</v>
       </c>
       <c r="H24" s="1">
-        <v>1273.050000</v>
+        <v>1273.05</v>
       </c>
       <c r="I24" s="1">
-        <v>-262.511000</v>
+        <v>-262.51100000000002</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>61602.788157</v>
+        <v>61602.788157000003</v>
       </c>
       <c r="L24" s="1">
-        <v>17.111886</v>
+        <v>17.111885999999998</v>
       </c>
       <c r="M24" s="1">
-        <v>1307.630000</v>
+        <v>1307.6300000000001</v>
       </c>
       <c r="N24" s="1">
-        <v>-201.741000</v>
+        <v>-201.74100000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>61613.117839</v>
+        <v>61613.117838999999</v>
       </c>
       <c r="Q24" s="1">
-        <v>17.114755</v>
+        <v>17.114754999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>1319.280000</v>
+        <v>1319.28</v>
       </c>
       <c r="S24" s="1">
-        <v>-183.951000</v>
+        <v>-183.95099999999999</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>61623.517955</v>
+        <v>61623.517955000003</v>
       </c>
       <c r="V24" s="1">
-        <v>17.117644</v>
+        <v>17.117643999999999</v>
       </c>
       <c r="W24" s="1">
-        <v>1332.730000</v>
+        <v>1332.73</v>
       </c>
       <c r="X24" s="1">
-        <v>-171.184000</v>
+        <v>-171.184</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>61634.045577</v>
+        <v>61634.045576999997</v>
       </c>
       <c r="AA24" s="1">
-        <v>17.120568</v>
+        <v>17.120567999999999</v>
       </c>
       <c r="AB24" s="1">
-        <v>1350.060000</v>
+        <v>1350.06</v>
       </c>
       <c r="AC24" s="1">
-        <v>-169.253000</v>
+        <v>-169.25299999999999</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>61644.501207</v>
+        <v>61644.501207000001</v>
       </c>
       <c r="AF24" s="1">
-        <v>17.123473</v>
+        <v>17.123473000000001</v>
       </c>
       <c r="AG24" s="1">
-        <v>1363.300000</v>
+        <v>1363.3</v>
       </c>
       <c r="AH24" s="1">
-        <v>-179.230000</v>
+        <v>-179.23</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>61655.128985</v>
+        <v>61655.128985000003</v>
       </c>
       <c r="AK24" s="1">
-        <v>17.126425</v>
+        <v>17.126425000000001</v>
       </c>
       <c r="AL24" s="1">
-        <v>1384.480000</v>
+        <v>1384.48</v>
       </c>
       <c r="AM24" s="1">
-        <v>-209.274000</v>
+        <v>-209.274</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>61666.037036</v>
+        <v>61666.037036000002</v>
       </c>
       <c r="AP24" s="1">
         <v>17.129455</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1406.690000</v>
+        <v>1406.69</v>
       </c>
       <c r="AR24" s="1">
-        <v>-253.015000</v>
+        <v>-253.01499999999999</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>61677.314043</v>
+        <v>61677.314042999998</v>
       </c>
       <c r="AU24" s="1">
-        <v>17.132587</v>
+        <v>17.132587000000001</v>
       </c>
       <c r="AV24" s="1">
-        <v>1431.800000</v>
+        <v>1431.8</v>
       </c>
       <c r="AW24" s="1">
-        <v>-312.673000</v>
+        <v>-312.673</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>61688.475057</v>
+        <v>61688.475057000003</v>
       </c>
       <c r="AZ24" s="1">
-        <v>17.135688</v>
+        <v>17.135687999999998</v>
       </c>
       <c r="BA24" s="1">
-        <v>1451.550000</v>
+        <v>1451.55</v>
       </c>
       <c r="BB24" s="1">
-        <v>-364.337000</v>
+        <v>-364.33699999999999</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>61700.275836</v>
+        <v>61700.275836000001</v>
       </c>
       <c r="BE24" s="1">
         <v>17.138966</v>
       </c>
       <c r="BF24" s="1">
-        <v>1538.610000</v>
+        <v>1538.61</v>
       </c>
       <c r="BG24" s="1">
-        <v>-610.444000</v>
+        <v>-610.44399999999996</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>61711.722053</v>
+        <v>61711.722052999998</v>
       </c>
       <c r="BJ24" s="1">
-        <v>17.142145</v>
+        <v>17.142144999999999</v>
       </c>
       <c r="BK24" s="1">
-        <v>1695.820000</v>
+        <v>1695.82</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1049.670000</v>
+        <v>-1049.67</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>61723.542702</v>
+        <v>61723.542701999999</v>
       </c>
       <c r="BO24" s="1">
         <v>17.145429</v>
       </c>
       <c r="BP24" s="1">
-        <v>1994.690000</v>
+        <v>1994.69</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1806.510000</v>
+        <v>-1806.51</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>61734.549920</v>
+        <v>61734.549919999998</v>
       </c>
       <c r="BT24" s="1">
-        <v>17.148486</v>
+        <v>17.148485999999998</v>
       </c>
       <c r="BU24" s="1">
-        <v>2386.380000</v>
+        <v>2386.38</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2672.210000</v>
+        <v>-2672.21</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>61745.903312</v>
+        <v>61745.903312000002</v>
       </c>
       <c r="BY24" s="1">
-        <v>17.151640</v>
+        <v>17.15164</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2871.470000</v>
+        <v>2871.47</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3617.970000</v>
+        <v>-3617.97</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>61759.201054</v>
+        <v>61759.201053999997</v>
       </c>
       <c r="CD24" s="1">
         <v>17.155334</v>
       </c>
       <c r="CE24" s="1">
-        <v>4281.420000</v>
+        <v>4281.42</v>
       </c>
       <c r="CF24" s="1">
-        <v>-5881.400000</v>
+        <v>-5881.4</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
         <v>61582.847532</v>
       </c>
@@ -6392,118 +6808,118 @@
         <v>17.106347</v>
       </c>
       <c r="C25" s="1">
-        <v>1248.700000</v>
+        <v>1248.7</v>
       </c>
       <c r="D25" s="1">
-        <v>-303.628000</v>
+        <v>-303.62799999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>61593.017498</v>
+        <v>61593.017498000001</v>
       </c>
       <c r="G25" s="1">
-        <v>17.109172</v>
+        <v>17.109172000000001</v>
       </c>
       <c r="H25" s="1">
-        <v>1272.920000</v>
+        <v>1272.92</v>
       </c>
       <c r="I25" s="1">
-        <v>-262.410000</v>
+        <v>-262.41000000000003</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>61603.208797</v>
+        <v>61603.208796999999</v>
       </c>
       <c r="L25" s="1">
         <v>17.112002</v>
       </c>
       <c r="M25" s="1">
-        <v>1307.320000</v>
+        <v>1307.32</v>
       </c>
       <c r="N25" s="1">
-        <v>-201.470000</v>
+        <v>-201.47</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
         <v>61613.398576</v>
       </c>
       <c r="Q25" s="1">
-        <v>17.114833</v>
+        <v>17.114833000000001</v>
       </c>
       <c r="R25" s="1">
-        <v>1319.180000</v>
+        <v>1319.18</v>
       </c>
       <c r="S25" s="1">
-        <v>-183.987000</v>
+        <v>-183.98699999999999</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>61623.861185</v>
+        <v>61623.861185000002</v>
       </c>
       <c r="V25" s="1">
         <v>17.117739</v>
       </c>
       <c r="W25" s="1">
-        <v>1332.570000</v>
+        <v>1332.57</v>
       </c>
       <c r="X25" s="1">
-        <v>-170.852000</v>
+        <v>-170.852</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>61634.395220</v>
+        <v>61634.395219999999</v>
       </c>
       <c r="AA25" s="1">
-        <v>17.120665</v>
+        <v>17.120664999999999</v>
       </c>
       <c r="AB25" s="1">
-        <v>1349.900000</v>
+        <v>1349.9</v>
       </c>
       <c r="AC25" s="1">
-        <v>-169.252000</v>
+        <v>-169.25200000000001</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>61644.842453</v>
+        <v>61644.842452999997</v>
       </c>
       <c r="AF25" s="1">
-        <v>17.123567</v>
+        <v>17.123567000000001</v>
       </c>
       <c r="AG25" s="1">
-        <v>1363.370000</v>
+        <v>1363.37</v>
       </c>
       <c r="AH25" s="1">
-        <v>-179.233000</v>
+        <v>-179.233</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
         <v>61655.725671</v>
       </c>
       <c r="AK25" s="1">
-        <v>17.126590</v>
+        <v>17.12659</v>
       </c>
       <c r="AL25" s="1">
-        <v>1384.500000</v>
+        <v>1384.5</v>
       </c>
       <c r="AM25" s="1">
-        <v>-209.214000</v>
+        <v>-209.214</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
         <v>61666.756233</v>
@@ -6512,392 +6928,393 @@
         <v>17.129655</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1406.700000</v>
+        <v>1406.7</v>
       </c>
       <c r="AR25" s="1">
-        <v>-252.984000</v>
+        <v>-252.98400000000001</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>61677.693482</v>
+        <v>61677.693482000002</v>
       </c>
       <c r="AU25" s="1">
         <v>17.132693</v>
       </c>
       <c r="AV25" s="1">
-        <v>1431.790000</v>
+        <v>1431.79</v>
       </c>
       <c r="AW25" s="1">
-        <v>-312.657000</v>
+        <v>-312.65699999999998</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
         <v>61688.833132</v>
       </c>
       <c r="AZ25" s="1">
-        <v>17.135787</v>
+        <v>17.135787000000001</v>
       </c>
       <c r="BA25" s="1">
-        <v>1451.610000</v>
+        <v>1451.61</v>
       </c>
       <c r="BB25" s="1">
-        <v>-364.282000</v>
+        <v>-364.28199999999998</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>61700.639405</v>
+        <v>61700.639405000002</v>
       </c>
       <c r="BE25" s="1">
-        <v>17.139067</v>
+        <v>17.139067000000001</v>
       </c>
       <c r="BF25" s="1">
-        <v>1538.520000</v>
+        <v>1538.52</v>
       </c>
       <c r="BG25" s="1">
-        <v>-610.511000</v>
+        <v>-610.51099999999997</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>61712.438238</v>
+        <v>61712.438238000002</v>
       </c>
       <c r="BJ25" s="1">
-        <v>17.142344</v>
+        <v>17.142344000000001</v>
       </c>
       <c r="BK25" s="1">
-        <v>1695.850000</v>
+        <v>1695.85</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1049.720000</v>
+        <v>-1049.72</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
         <v>61723.655261</v>
       </c>
       <c r="BO25" s="1">
-        <v>17.145460</v>
+        <v>17.14546</v>
       </c>
       <c r="BP25" s="1">
-        <v>1994.640000</v>
+        <v>1994.64</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1806.260000</v>
+        <v>-1806.26</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>61734.659008</v>
+        <v>61734.659008000002</v>
       </c>
       <c r="BT25" s="1">
-        <v>17.148516</v>
+        <v>17.148516000000001</v>
       </c>
       <c r="BU25" s="1">
-        <v>2386.370000</v>
+        <v>2386.37</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2672.090000</v>
+        <v>-2672.09</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
         <v>61746.373024</v>
       </c>
       <c r="BY25" s="1">
-        <v>17.151770</v>
+        <v>17.151769999999999</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2871.140000</v>
+        <v>2871.14</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3617.220000</v>
+        <v>-3617.22</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>61759.739246</v>
+        <v>61759.739245999997</v>
       </c>
       <c r="CD25" s="1">
         <v>17.155483</v>
       </c>
       <c r="CE25" s="1">
-        <v>4289.780000</v>
+        <v>4289.78</v>
       </c>
       <c r="CF25" s="1">
-        <v>-5866.920000</v>
+        <v>-5866.92</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>61583.267112</v>
+        <v>61583.267112000001</v>
       </c>
       <c r="B26" s="1">
-        <v>17.106463</v>
+        <v>17.106463000000002</v>
       </c>
       <c r="C26" s="1">
-        <v>1248.500000</v>
+        <v>1248.5</v>
       </c>
       <c r="D26" s="1">
-        <v>-303.389000</v>
+        <v>-303.38900000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>61593.287821</v>
+        <v>61593.287820999998</v>
       </c>
       <c r="G26" s="1">
         <v>17.109247</v>
       </c>
       <c r="H26" s="1">
-        <v>1272.490000</v>
+        <v>1272.49</v>
       </c>
       <c r="I26" s="1">
-        <v>-261.830000</v>
+        <v>-261.83</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>61603.497933</v>
+        <v>61603.497932999999</v>
       </c>
       <c r="L26" s="1">
-        <v>17.112083</v>
+        <v>17.112082999999998</v>
       </c>
       <c r="M26" s="1">
-        <v>1307.620000</v>
+        <v>1307.6199999999999</v>
       </c>
       <c r="N26" s="1">
-        <v>-201.551000</v>
+        <v>-201.55099999999999</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>61613.745278</v>
+        <v>61613.745278000002</v>
       </c>
       <c r="Q26" s="1">
         <v>17.114929</v>
       </c>
       <c r="R26" s="1">
-        <v>1319.240000</v>
+        <v>1319.24</v>
       </c>
       <c r="S26" s="1">
-        <v>-183.958000</v>
+        <v>-183.958</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>61624.203457</v>
+        <v>61624.203457000003</v>
       </c>
       <c r="V26" s="1">
-        <v>17.117834</v>
+        <v>17.117833999999998</v>
       </c>
       <c r="W26" s="1">
-        <v>1332.750000</v>
+        <v>1332.75</v>
       </c>
       <c r="X26" s="1">
-        <v>-170.703000</v>
+        <v>-170.703</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>61634.742419</v>
+        <v>61634.742419000002</v>
       </c>
       <c r="AA26" s="1">
-        <v>17.120762</v>
+        <v>17.120761999999999</v>
       </c>
       <c r="AB26" s="1">
-        <v>1350.160000</v>
+        <v>1350.16</v>
       </c>
       <c r="AC26" s="1">
-        <v>-169.244000</v>
+        <v>-169.244</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>61645.528916</v>
+        <v>61645.528916000003</v>
       </c>
       <c r="AF26" s="1">
-        <v>17.123758</v>
+        <v>17.123757999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>1363.230000</v>
+        <v>1363.23</v>
       </c>
       <c r="AH26" s="1">
-        <v>-179.276000</v>
+        <v>-179.27600000000001</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
         <v>61656.124958</v>
       </c>
       <c r="AK26" s="1">
-        <v>17.126701</v>
+        <v>17.126701000000001</v>
       </c>
       <c r="AL26" s="1">
-        <v>1384.490000</v>
+        <v>1384.49</v>
       </c>
       <c r="AM26" s="1">
-        <v>-209.224000</v>
+        <v>-209.22399999999999</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>61667.116792</v>
+        <v>61667.116792000001</v>
       </c>
       <c r="AP26" s="1">
-        <v>17.129755</v>
+        <v>17.129754999999999</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1406.680000</v>
+        <v>1406.68</v>
       </c>
       <c r="AR26" s="1">
-        <v>-253.007000</v>
+        <v>-253.00700000000001</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>61678.061019</v>
+        <v>61678.061019000001</v>
       </c>
       <c r="AU26" s="1">
-        <v>17.132795</v>
+        <v>17.132795000000002</v>
       </c>
       <c r="AV26" s="1">
-        <v>1431.790000</v>
+        <v>1431.79</v>
       </c>
       <c r="AW26" s="1">
-        <v>-312.599000</v>
+        <v>-312.59899999999999</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>61689.505212</v>
+        <v>61689.505211999996</v>
       </c>
       <c r="AZ26" s="1">
-        <v>17.135974</v>
+        <v>17.135974000000001</v>
       </c>
       <c r="BA26" s="1">
-        <v>1451.810000</v>
+        <v>1451.81</v>
       </c>
       <c r="BB26" s="1">
-        <v>-364.372000</v>
+        <v>-364.37200000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>61701.305067</v>
+        <v>61701.305067000001</v>
       </c>
       <c r="BE26" s="1">
-        <v>17.139251</v>
+        <v>17.139251000000002</v>
       </c>
       <c r="BF26" s="1">
-        <v>1538.550000</v>
+        <v>1538.55</v>
       </c>
       <c r="BG26" s="1">
-        <v>-610.497000</v>
+        <v>-610.49699999999996</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>61712.873725</v>
+        <v>61712.873724999998</v>
       </c>
       <c r="BJ26" s="1">
-        <v>17.142465</v>
+        <v>17.142465000000001</v>
       </c>
       <c r="BK26" s="1">
-        <v>1695.790000</v>
+        <v>1695.79</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1049.660000</v>
+        <v>-1049.6600000000001</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>61724.076861</v>
+        <v>61724.076861000001</v>
       </c>
       <c r="BO26" s="1">
-        <v>17.145577</v>
+        <v>17.145576999999999</v>
       </c>
       <c r="BP26" s="1">
-        <v>1994.570000</v>
+        <v>1994.57</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1806.440000</v>
+        <v>-1806.44</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>61735.099454</v>
+        <v>61735.099454000003</v>
       </c>
       <c r="BT26" s="1">
-        <v>17.148639</v>
+        <v>17.148638999999999</v>
       </c>
       <c r="BU26" s="1">
-        <v>2386.340000</v>
+        <v>2386.34</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2672.210000</v>
+        <v>-2672.21</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>61746.824383</v>
+        <v>61746.824382999999</v>
       </c>
       <c r="BY26" s="1">
-        <v>17.151896</v>
+        <v>17.151896000000001</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2870.650000</v>
+        <v>2870.65</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3617.560000</v>
+        <v>-3617.56</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>61760.280364</v>
+        <v>61760.280363999998</v>
       </c>
       <c r="CD26" s="1">
-        <v>17.155633</v>
+        <v>17.155633000000002</v>
       </c>
       <c r="CE26" s="1">
-        <v>4272.160000</v>
+        <v>4272.16</v>
       </c>
       <c r="CF26" s="1">
-        <v>-5868.060000</v>
+        <v>-5868.06</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>